--- a/03_DB設計書/サーバサイド設計.xlsx
+++ b/03_DB設計書/サーバサイド設計.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E897972-8514-468F-A7C0-6C05F96AE43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF86EB7D-7A91-4968-A7FF-4809046485F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="-10650" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新規ユーザ登録" sheetId="1" r:id="rId1"/>
@@ -132,39 +132,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【ユーザ名】入力
-【ユーザID】入力
-【パスワード】入力
-【パスワード（再）】入力
-【メールアドレス】入力
-【登録ボタン】クリック</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>未入力チェック
 パスワード一致チェック
 メールアドレスチェック
@@ -482,6 +449,39 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ユーザ名】入力
+【ニックネーム】入力
+【パスワード】入力
+【パスワード（再）】入力
+【メールアドレス】入力
+【登録ボタン】クリック</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2149,7 +2149,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2192,7 +2192,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -2228,13 +2228,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2250,13 +2250,13 @@
         <v>5</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="72">
@@ -2264,36 +2264,36 @@
         <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="E18" s="4"/>
       <c r="H18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="E19" s="4"/>
       <c r="H19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="E20" s="4"/>
       <c r="H20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="H21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2301,7 +2301,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2309,7 +2309,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2317,7 +2317,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2377,7 +2377,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2412,7 +2412,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="126">
@@ -2420,13 +2420,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2442,13 +2442,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="144">
@@ -2456,13 +2456,13 @@
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2470,7 +2470,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2503,7 +2503,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2518,7 +2518,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2667,14 +2667,14 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -2722,14 +2722,14 @@
         <v>5</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="72">
@@ -2740,14 +2740,14 @@
         <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2759,7 +2759,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2771,7 +2771,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2783,7 +2783,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2795,7 +2795,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2803,7 +2803,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2817,7 +2817,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2831,7 +2831,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2935,6 +2935,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004898E95636345E4BA9B7207E304FF02A" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="565c9b6a8aa100445eb1ff549299857f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2741836-0272-4e3d-8a51-652512547cb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fea20e6e6d2355ca003064106e1f8fa" ns2:_="">
     <xsd:import namespace="b2741836-0272-4e3d-8a51-652512547cb8"/>
@@ -3078,22 +3093,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31C96260-F6F0-437B-8A0B-59B492E42F8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120F1888-39C5-479E-B2C4-E2B421ACFC0E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F49AE2C3-4D50-4846-A0C8-25D41A30099E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3109,21 +3126,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120F1888-39C5-479E-B2C4-E2B421ACFC0E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31C96260-F6F0-437B-8A0B-59B492E42F8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/03_DB設計書/サーバサイド設計.xlsx
+++ b/03_DB設計書/サーバサイド設計.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF86EB7D-7A91-4968-A7FF-4809046485F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="507" documentId="13_ncr:1_{AF86EB7D-7A91-4968-A7FF-4809046485F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8C07041-8371-4896-B877-6E8AC26508C2}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="-10650" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="新規ユーザ登録" sheetId="1" r:id="rId1"/>
-    <sheet name="ログイン処理" sheetId="2" r:id="rId2"/>
-    <sheet name="投稿処理" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="表紙" sheetId="12" r:id="rId1"/>
+    <sheet name="新規ユーザ登録" sheetId="1" r:id="rId2"/>
+    <sheet name="ログイン処理" sheetId="2" r:id="rId3"/>
+    <sheet name="コメント処理" sheetId="14" r:id="rId4"/>
+    <sheet name="投稿処理" sheetId="5" r:id="rId5"/>
+    <sheet name="履歴処理" sheetId="3" r:id="rId6"/>
+    <sheet name="ログアウト処理" sheetId="7" r:id="rId7"/>
+    <sheet name="パスワード変更処理" sheetId="17" r:id="rId8"/>
+    <sheet name="プロフィール修正処理" sheetId="8" r:id="rId9"/>
+    <sheet name="検索処理" sheetId="9" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$34</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +44,275 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="139">
+  <si>
+    <t>作成日</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>麻生情報ビジネス専門学校</t>
+    <rPh sb="0" eb="2">
+      <t>アソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センモン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガッコウ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>情報システム専攻科3年Eクラス</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Aチーム</t>
+  </si>
+  <si>
+    <t>システム名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>情報共有掲示板</t>
+  </si>
+  <si>
+    <t>ＰＭ</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ＰＬ</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>担当</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>サーバーサイド設計書設計書</t>
+    <rPh sb="7" eb="10">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>更新履歴</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>作成･更新日</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>改版理由・箇所</t>
+    <rPh sb="0" eb="2">
+      <t>カイハン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ver1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表紙</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永田</t>
+    <rPh sb="0" eb="2">
+      <t>ナガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ユーザー登録　作成</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永田・井浦</t>
+    <rPh sb="0" eb="2">
+      <t>ナガタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イウラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン処理　作成</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿処理　作成</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴処理　作成</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>井浦</t>
+    <rPh sb="0" eb="2">
+      <t>イウラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント処理　作成</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト処理　作成</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>井浦・永田</t>
+    <rPh sb="0" eb="2">
+      <t>イウラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール修正画面　作成</t>
+    <rPh sb="6" eb="10">
+      <t xml:space="preserve">シュウセイガメン </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>諌山</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イサヤマ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索処理　作成</t>
+  </si>
+  <si>
+    <t>井浦</t>
+  </si>
+  <si>
+    <t>新規ユーザ登録処理</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>トウロクショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
@@ -83,9 +361,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【ユーザ登録はこちら】クリック</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
+    <t>【初めての方はこちらから】クリック</t>
+    <rPh sb="1" eb="2">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -132,34 +413,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未入力チェック
-パスワード一致チェック
-メールアドレスチェック
-チェックOKの場合
-UserRegist.php呼出
-チェックNGの場合
-UserInput.php呼出</t>
-    <rPh sb="0" eb="3">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ヨビダシ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ヨビダシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UserRegist.php</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -171,38 +424,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>User</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Userテーブルに登録
+    <t>users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>usersテーブルに登録
 ユーザ登録完了画面を表示</t>
-    <rPh sb="9" eb="11">
+    <rPh sb="10" eb="12">
       <t>トウロク</t>
     </rPh>
-    <rPh sb="16" eb="20">
+    <rPh sb="17" eb="21">
       <t>トウロクカンリョウ</t>
     </rPh>
-    <rPh sb="20" eb="22">
+    <rPh sb="21" eb="23">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="23" eb="25">
+    <rPh sb="24" eb="26">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>カラム名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UserName（I）
-UserID（I）
-UserPass（I）
-UserMail（I）</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョクイッチバアイヨビダシバアイヨビダシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -254,16 +500,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クリックされない場合は５秒後に遷移</t>
-    <rPh sb="8" eb="10">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ビョウゴ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>センイ</t>
-    </rPh>
+    <t>リンクをクリックする</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -275,18 +512,6 @@
   </si>
   <si>
     <t>Login.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【ユーザID】入力
-【パスワード】入力
-【ログインボタン】クリック</t>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -320,6 +545,10 @@
   </si>
   <si>
     <t>UserExist.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -353,8 +582,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UserID（R）
-UserPass（R）</t>
+    <t>カラム名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id（R）
+user_pass（R）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -362,28 +598,400 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新規ユーザ登録処理</t>
+    <t>コメント処理</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップ画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reply.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気になるスレッドをクリック</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信画面を表示</t>
     <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>トウロクショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【初めての方はこちらから】クリック</t>
-    <rPh sb="1" eb="2">
-      <t>ハジ</t>
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReplyCheck.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【返信】入力
+【返信ボタン】クリック</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>commentsテーブルに登録</t>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿処理</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダー画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Post.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【投稿】をクリック</t>
+    <rPh sb="1" eb="3">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿画面を表示</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿画面</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>postcheck.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PostRegist.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>threads</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>threadsテーブルに登録
+commentsテーブルに登録</t>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>履歴処理</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>history.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿履歴を押す</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウリレキ</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>カタ</t>
-    </rPh>
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿履歴画面を表示</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウリレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿履歴画面</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウリレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【削除】クリック
+</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿履歴画面</t>
+    <rPh sb="0" eb="6">
+      <t>トウコウリレキガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト処理</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール画面</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logout.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ログアウト】をクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーのログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール画面</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ガメン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Profile.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【修正する】クリック</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール修正画面を表示</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール修正画面</t>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProfileCheck.php</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>【氏名】入力
 【ニックネーム】入力
+【住所】入力
+【番地】入力
+【電話番号】入力
+【メールアドレス】入力
+【更新する】クリック</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ジュウショ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">ニュウリョク </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">バンチ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">ニュウリョク </t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t xml:space="preserve">デンワバンゴウ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">ニュウリョク </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">コウシンスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProfileRegist.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Userテーブルに登録
+プロフィール画面を表示</t>
+    <rPh sb="9" eb="10">
+      <t>ノボ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>_x0000_	_x0001_</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索処理</t>
+  </si>
+  <si>
+    <t>ヘッダー画面</t>
+  </si>
+  <si>
+    <t>search.php</t>
+  </si>
+  <si>
+    <t>【検索】をクリック</t>
+  </si>
+  <si>
+    <t>入力された場合
+検索結果画面に
+検索結果スレッドを表示</t>
+    <rPh sb="8" eb="12">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索結果画面</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【スレッド】の表示</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【氏名】入力
+【ニックネーム】入力
+【〒（郵便番号）】入力
 【住所】入力
 【番地】入力
 【電話番号】入力
@@ -400,88 +1008,378 @@
     <rPh sb="15" eb="17">
       <t>ニュウリョク</t>
     </rPh>
+    <rPh sb="21" eb="25">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="45" eb="49">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="81" eb="84">
+      <t>サイカクニン</t>
+    </rPh>
+    <rPh sb="84" eb="87">
+      <t>｣ニュウリョク</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未入力チェック
+氏名入力チェック
+ニックネーム入力チェック
+住所入力チェック
+番地入力チェック
+電話番号入力チェック
+メールアドレスチェック
+パスワード一致チェック
+チェックOKの場合
+UserRegist.php呼出
+チェックNGの場合
+UserInput.php呼出</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ヨビダシ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ヨビダシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ユーザID】入力
+【パスワード】入力
+【ログイン】クリック</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>threads_id（I）
+user_id (R)
+threads_title（I）
+threads_date (I)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comments_id (I)
+threads_id (R)
+user_id (R)
+post_date (I)
+comment(I)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comments_id (I)
+threads_id (R)
+user_id (R)
+post_date (I)
+comment (I)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id (I)
+user_name（I）
+user_niku（I）
+user_zip (I)
+user_address（I）
+user_number（I）
+user_mail(I)
+user_pass(I)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未入力チェック
+返信入力チェック
+チェックOKの場合
+ReplyRegist.php呼出
+チェックNGの場合
+Reply.php呼出</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヨビダシ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヨビダシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【タイトル】入力
+【投稿内容】入力
+【投稿する】クリック</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>トウコウナイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
     <rPh sb="19" eb="21">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未入力チェック
+タイトル入力チェック
+投稿内容入力チェック
+チェックOKの場合PostRegist.php呼出
+チェックNGの場合
+Post.php呼出</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
       <t>ニュウリョク</t>
     </rPh>
+    <rPh sb="19" eb="23">
+      <t>トウコウナイヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヨビダシ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ヨビダシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿内容を削除</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【パスワード】変更クリック</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PassCheck.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード確認画面</t>
+    <rPh sb="5" eb="9">
+      <t>カクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード変更画面</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【現在のパスワード】入力
+【変更する】クリック</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【変更パスワード】入力
+【変更パスワード（確認）】入力
+【変更する】クリック</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>｣ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未入力チェック
+変更パスワード入力
+変更パスワード（確認）入力
+一致した場合はOK
+チェックOKの場合
+PassRegist.php呼出
+チェックNGの場合
+Profile.php呼出</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
     <rPh sb="26" eb="28">
-      <t>バンチ</t>
+      <t>カクニン</t>
     </rPh>
     <rPh sb="29" eb="31">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="33" eb="37">
-      <t>デンワバンゴウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="69" eb="72">
-      <t>サイカクニン</t>
-    </rPh>
-    <rPh sb="72" eb="75">
-      <t>｣ニュウリョク</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カラム名</t>
-    <rPh sb="0" eb="3">
-      <t>ミニュウリョクイッチバアイヨビダシバアイヨビダシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投稿処理</t>
-    <rPh sb="0" eb="2">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
+    <rPh sb="32" eb="34">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヨビダシ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>バ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id(R)
+user_pass（U）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id(R)
+user_name（U）
+user_niku（U）
+user_address（U）
+user_number（U）
+user_mail(U)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード変更処理　作成</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【ユーザ名】入力
-【ニックネーム】入力
-【パスワード】入力
-【パスワード（再）】入力
-【メールアドレス】入力
-【登録ボタン】クリック</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>トウロク</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -490,7 +1388,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+  </numFmts>
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,6 +1406,94 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="36"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -526,7 +1516,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -549,11 +1539,200 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -567,15 +1746,200 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{7DB649A6-BC0D-4E3C-B6EC-677A67670E69}"/>
+    <cellStyle name="標準_Sheet1" xfId="4" xr:uid="{B085AE2F-1FC4-496D-A461-28AE10A0F030}"/>
+    <cellStyle name="標準_コピー ～ 種別マスタ項目_詳細設計書_Ver1_詳細設計書テンプレート" xfId="3" xr:uid="{4292E82F-C64C-4BAA-B0F8-FCE87BD09F91}"/>
+    <cellStyle name="標準_システム管理" xfId="2" xr:uid="{36976831-4875-47BD-9FCA-09ADC0BB8D30}"/>
+    <cellStyle name="標準_種別マスタ" xfId="5" xr:uid="{55A23033-77B6-4B43-9ED1-AD8BB6C75F3B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1397,10 +2761,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矢印: 右 1">
+        <xdr:cNvPr id="20" name="矢印: 右 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{622FF8E9-BD0E-447A-8003-B4326575D2FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB9B45A7-C5BF-4B14-8632-034953C14B05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1408,8 +2772,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3343275" y="838200"/>
-          <a:ext cx="561975" cy="266700"/>
+          <a:off x="3244215" y="838200"/>
+          <a:ext cx="523875" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1457,10 +2821,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矢印: 右 2">
+        <xdr:cNvPr id="21" name="矢印: 右 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70DC491F-DE24-4B12-98B6-DD1B60127F03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF54982-EF95-4ECB-89E8-FD26B7F343D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1468,8 +2832,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="8123381">
-          <a:off x="2961177" y="1587889"/>
-          <a:ext cx="1227015" cy="257175"/>
+          <a:off x="2938317" y="1587889"/>
+          <a:ext cx="1013655" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1517,10 +2881,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矢印: 右 3">
+        <xdr:cNvPr id="22" name="矢印: 右 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B5C391-4780-4C19-9E90-9831817A6B07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F3676BF-E594-4A5C-982F-B803285E9571}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1528,7 +2892,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="5289233" y="1538287"/>
+          <a:off x="4999673" y="1538287"/>
           <a:ext cx="809625" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -1580,6 +2944,736 @@
         <xdr:cNvPr id="5" name="矢印: 右 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C352565-4491-42EE-B5EE-DA1ED9E2D1F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5109210" y="5238750"/>
+          <a:ext cx="542925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矢印: 右 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19609F21-5CAA-4E5B-B08F-0A3EAB451D0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6276975" y="6172200"/>
+          <a:ext cx="485775" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>800100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1076325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矢印: 右 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEAA30EE-DB4B-40D4-B0BC-2975F7077A91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3244215" y="3314700"/>
+          <a:ext cx="523875" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矢印: 右 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B9074B7-8D8A-429C-A7CC-E24BA275EC41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3244215" y="838200"/>
+          <a:ext cx="523875" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2420157</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>216289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180072</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>16264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矢印: 右 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0CEE2F2-462C-44C8-960B-BAD6942357F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8123381">
+          <a:off x="2938317" y="1587889"/>
+          <a:ext cx="1013655" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>704851</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>990601</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矢印: 右 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D9623B-E042-4809-BAF3-765C7184B2A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4999673" y="1538287"/>
+          <a:ext cx="809625" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矢印: 右 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F56C0F5E-34D1-4CC2-BF1A-578A75F0F8F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5109210" y="5238750"/>
+          <a:ext cx="542925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矢印: 右 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BCE2D58-4A07-4B1B-86F1-C11FA142CB9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6276975" y="6172200"/>
+          <a:ext cx="485775" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>800100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1076325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矢印: 右 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CFB64BB-8C40-4860-B0C6-FCE385C95209}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3244215" y="3314700"/>
+          <a:ext cx="523875" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1610418</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>110106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>582248</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>82840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矢印: 右 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D038E515-2B4C-4243-9A48-ED26D0D57329}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1526218">
+          <a:off x="6172392" y="6186053"/>
+          <a:ext cx="676303" cy="433945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矢印: 右 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{622FF8E9-BD0E-447A-8003-B4326575D2FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3343275" y="838200"/>
+          <a:ext cx="561975" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2553841</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>40829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>313756</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66396</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矢印: 右 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70DC491F-DE24-4B12-98B6-DD1B60127F03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8123381">
+          <a:off x="3071867" y="1619974"/>
+          <a:ext cx="1001757" cy="251159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>417845</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>439557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>224474</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矢印: 右 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12F92DE2-3EA6-4E5E-8C1D-98710C58A18D}"/>
             </a:ext>
           </a:extLst>
@@ -1587,8 +3681,983 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
+        <a:xfrm rot="7464922">
+          <a:off x="3074190" y="3394303"/>
+          <a:ext cx="1156517" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>67678</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>16712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>585203</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>398714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矢印: 右 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF31E114-1082-41AB-B170-5AA8CB008E08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3167481" y="2498225"/>
+          <a:ext cx="517525" cy="382002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矢印: 右 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDBF5332-1A15-4704-B504-B88877EA1260}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3244215" y="838200"/>
+          <a:ext cx="523875" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2495355</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>255270</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>41330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矢印: 右 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A261E6A-68DE-485C-8A31-D880AB64C060}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8123381">
+          <a:off x="3013381" y="1594908"/>
+          <a:ext cx="1018468" cy="251159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矢印: 右 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CA65B80-03F4-40E4-95CE-753523FD16E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3236595" y="838200"/>
+          <a:ext cx="516255" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2420157</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>216289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180072</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>16264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矢印: 右 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ADC82B3-93E3-4040-BA42-514782747499}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8123381">
+          <a:off x="2930697" y="1587889"/>
+          <a:ext cx="1006035" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>704851</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>990601</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>177928</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矢印: 右 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20174F00-F750-4CBC-8A3A-5E7E709E9ED8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3076624" y="3435961"/>
+          <a:ext cx="4608844" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1056863</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1333088</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>226209</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矢印: 右 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73F61045-8D29-4AE2-B036-DA6DBB856861}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5398770" y="4781550"/>
+          <a:off x="1298519" y="5465875"/>
+          <a:ext cx="808913" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1015028</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>96332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1291253</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109667</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矢印: 右 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA653E43-C453-4FD3-BCAD-2B7DFCB6D85A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1191297" y="3438710"/>
+          <a:ext cx="939688" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16567</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>844569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22413</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1120794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矢印: 右 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61DEE9DB-C755-42EC-A1F3-085C27D5E2E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3109391" y="7089981"/>
+          <a:ext cx="670728" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>656077</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>39212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>932302</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12187</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矢印: 右 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B557BF-6BB7-4EE7-ABEE-622AAB919885}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4994967" y="8534793"/>
+          <a:ext cx="667739" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2029144</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>376911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2990</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>653136</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矢印: 右 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B0255B9-CEB0-486F-90DC-F96E1A88C255}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6563791" y="9603087"/>
+          <a:ext cx="670728" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2566172</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>77774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>312089</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>122411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矢印: 右 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B066A2EC-CF35-4496-A9C4-8586154A4013}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8456616">
+          <a:off x="3074172" y="10678539"/>
+          <a:ext cx="995623" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矢印: 右 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00EC371F-F069-4468-9325-8FEFFDB7447E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3244215" y="838200"/>
+          <a:ext cx="523875" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2420157</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>216289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180072</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>16264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矢印: 右 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC5314C-13C3-42D9-8B08-9A7273FF38E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8123381">
+          <a:off x="2938317" y="1587889"/>
+          <a:ext cx="1013655" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>704851</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>990601</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矢印: 右 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA9832A0-54DE-44E7-8667-015D9ADEBBC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4999673" y="1538287"/>
+          <a:ext cx="809625" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矢印: 右 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F470F35-EB65-45AB-B1DE-95F86993C901}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5109210" y="5238750"/>
           <a:ext cx="542925" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -1640,7 +4709,7 @@
         <xdr:cNvPr id="6" name="矢印: 右 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F38A0B39-4112-4B2D-859F-A123BEEDBF0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B92AAE9-9E16-44C0-B45B-A7FB7F8F6BE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1648,68 +4717,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="8123381">
-          <a:off x="2987976" y="6710715"/>
-          <a:ext cx="1070841" cy="281255"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="矢印: 右 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7663D371-C661-4431-B14F-13B653D75BB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="1503045" y="8220075"/>
-          <a:ext cx="542925" cy="276225"/>
+          <a:off x="2965116" y="7167915"/>
+          <a:ext cx="857481" cy="281255"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1760,7 +4769,7 @@
         <xdr:cNvPr id="8" name="矢印: 右 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F4CADE-3E12-4946-9EE3-0B5062DCE3B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB01E95-8BAA-4D4F-811C-474E7CC47D80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1768,8 +4777,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7054215" y="5715000"/>
-          <a:ext cx="561975" cy="276225"/>
+          <a:off x="6276975" y="6172200"/>
+          <a:ext cx="485775" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1820,7 +4829,7 @@
         <xdr:cNvPr id="9" name="矢印: 右 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF31E114-1082-41AB-B170-5AA8CB008E08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936B1206-CAA3-4833-AF25-70D3FCF274BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1828,8 +4837,133 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3343275" y="3314700"/>
-          <a:ext cx="561975" cy="276225"/>
+          <a:off x="3244215" y="3314700"/>
+          <a:ext cx="523875" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矢印: 右 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DFA5698-6639-4F64-8E55-8D0FEE353C5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3244215" y="838200"/>
+          <a:ext cx="523875" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2420157</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>216289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180072</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>16264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矢印: 右 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B0A7E3C-DA59-4C69-9E61-E351ECA78B92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8123381">
+          <a:off x="2938317" y="1587889"/>
+          <a:ext cx="1013655" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2127,11 +5261,2149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3C4B4F-E948-4425-8A11-685B9DE0EC81}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:FT53"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="3.69921875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="3.69921875" style="8" customWidth="1"/>
+    <col min="7" max="32" width="3.69921875" style="5" customWidth="1"/>
+    <col min="33" max="36" width="3.59765625" style="5" customWidth="1"/>
+    <col min="37" max="256" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="257" max="288" width="3.69921875" style="5" customWidth="1"/>
+    <col min="289" max="292" width="3.59765625" style="5" customWidth="1"/>
+    <col min="293" max="512" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="513" max="544" width="3.69921875" style="5" customWidth="1"/>
+    <col min="545" max="548" width="3.59765625" style="5" customWidth="1"/>
+    <col min="549" max="768" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="769" max="800" width="3.69921875" style="5" customWidth="1"/>
+    <col min="801" max="804" width="3.59765625" style="5" customWidth="1"/>
+    <col min="805" max="1024" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1056" width="3.69921875" style="5" customWidth="1"/>
+    <col min="1057" max="1060" width="3.59765625" style="5" customWidth="1"/>
+    <col min="1061" max="1280" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1312" width="3.69921875" style="5" customWidth="1"/>
+    <col min="1313" max="1316" width="3.59765625" style="5" customWidth="1"/>
+    <col min="1317" max="1536" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1568" width="3.69921875" style="5" customWidth="1"/>
+    <col min="1569" max="1572" width="3.59765625" style="5" customWidth="1"/>
+    <col min="1573" max="1792" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1824" width="3.69921875" style="5" customWidth="1"/>
+    <col min="1825" max="1828" width="3.59765625" style="5" customWidth="1"/>
+    <col min="1829" max="2048" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2080" width="3.69921875" style="5" customWidth="1"/>
+    <col min="2081" max="2084" width="3.59765625" style="5" customWidth="1"/>
+    <col min="2085" max="2304" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2336" width="3.69921875" style="5" customWidth="1"/>
+    <col min="2337" max="2340" width="3.59765625" style="5" customWidth="1"/>
+    <col min="2341" max="2560" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2592" width="3.69921875" style="5" customWidth="1"/>
+    <col min="2593" max="2596" width="3.59765625" style="5" customWidth="1"/>
+    <col min="2597" max="2816" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2848" width="3.69921875" style="5" customWidth="1"/>
+    <col min="2849" max="2852" width="3.59765625" style="5" customWidth="1"/>
+    <col min="2853" max="3072" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3104" width="3.69921875" style="5" customWidth="1"/>
+    <col min="3105" max="3108" width="3.59765625" style="5" customWidth="1"/>
+    <col min="3109" max="3328" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3360" width="3.69921875" style="5" customWidth="1"/>
+    <col min="3361" max="3364" width="3.59765625" style="5" customWidth="1"/>
+    <col min="3365" max="3584" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3616" width="3.69921875" style="5" customWidth="1"/>
+    <col min="3617" max="3620" width="3.59765625" style="5" customWidth="1"/>
+    <col min="3621" max="3840" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3872" width="3.69921875" style="5" customWidth="1"/>
+    <col min="3873" max="3876" width="3.59765625" style="5" customWidth="1"/>
+    <col min="3877" max="4096" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4128" width="3.69921875" style="5" customWidth="1"/>
+    <col min="4129" max="4132" width="3.59765625" style="5" customWidth="1"/>
+    <col min="4133" max="4352" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4384" width="3.69921875" style="5" customWidth="1"/>
+    <col min="4385" max="4388" width="3.59765625" style="5" customWidth="1"/>
+    <col min="4389" max="4608" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4640" width="3.69921875" style="5" customWidth="1"/>
+    <col min="4641" max="4644" width="3.59765625" style="5" customWidth="1"/>
+    <col min="4645" max="4864" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4896" width="3.69921875" style="5" customWidth="1"/>
+    <col min="4897" max="4900" width="3.59765625" style="5" customWidth="1"/>
+    <col min="4901" max="5120" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5152" width="3.69921875" style="5" customWidth="1"/>
+    <col min="5153" max="5156" width="3.59765625" style="5" customWidth="1"/>
+    <col min="5157" max="5376" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5408" width="3.69921875" style="5" customWidth="1"/>
+    <col min="5409" max="5412" width="3.59765625" style="5" customWidth="1"/>
+    <col min="5413" max="5632" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5664" width="3.69921875" style="5" customWidth="1"/>
+    <col min="5665" max="5668" width="3.59765625" style="5" customWidth="1"/>
+    <col min="5669" max="5888" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5920" width="3.69921875" style="5" customWidth="1"/>
+    <col min="5921" max="5924" width="3.59765625" style="5" customWidth="1"/>
+    <col min="5925" max="6144" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6176" width="3.69921875" style="5" customWidth="1"/>
+    <col min="6177" max="6180" width="3.59765625" style="5" customWidth="1"/>
+    <col min="6181" max="6400" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6432" width="3.69921875" style="5" customWidth="1"/>
+    <col min="6433" max="6436" width="3.59765625" style="5" customWidth="1"/>
+    <col min="6437" max="6656" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6688" width="3.69921875" style="5" customWidth="1"/>
+    <col min="6689" max="6692" width="3.59765625" style="5" customWidth="1"/>
+    <col min="6693" max="6912" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6944" width="3.69921875" style="5" customWidth="1"/>
+    <col min="6945" max="6948" width="3.59765625" style="5" customWidth="1"/>
+    <col min="6949" max="7168" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7200" width="3.69921875" style="5" customWidth="1"/>
+    <col min="7201" max="7204" width="3.59765625" style="5" customWidth="1"/>
+    <col min="7205" max="7424" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7456" width="3.69921875" style="5" customWidth="1"/>
+    <col min="7457" max="7460" width="3.59765625" style="5" customWidth="1"/>
+    <col min="7461" max="7680" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7712" width="3.69921875" style="5" customWidth="1"/>
+    <col min="7713" max="7716" width="3.59765625" style="5" customWidth="1"/>
+    <col min="7717" max="7936" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7968" width="3.69921875" style="5" customWidth="1"/>
+    <col min="7969" max="7972" width="3.59765625" style="5" customWidth="1"/>
+    <col min="7973" max="8192" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8224" width="3.69921875" style="5" customWidth="1"/>
+    <col min="8225" max="8228" width="3.59765625" style="5" customWidth="1"/>
+    <col min="8229" max="8448" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8480" width="3.69921875" style="5" customWidth="1"/>
+    <col min="8481" max="8484" width="3.59765625" style="5" customWidth="1"/>
+    <col min="8485" max="8704" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8736" width="3.69921875" style="5" customWidth="1"/>
+    <col min="8737" max="8740" width="3.59765625" style="5" customWidth="1"/>
+    <col min="8741" max="8960" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8992" width="3.69921875" style="5" customWidth="1"/>
+    <col min="8993" max="8996" width="3.59765625" style="5" customWidth="1"/>
+    <col min="8997" max="9216" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9248" width="3.69921875" style="5" customWidth="1"/>
+    <col min="9249" max="9252" width="3.59765625" style="5" customWidth="1"/>
+    <col min="9253" max="9472" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9504" width="3.69921875" style="5" customWidth="1"/>
+    <col min="9505" max="9508" width="3.59765625" style="5" customWidth="1"/>
+    <col min="9509" max="9728" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9760" width="3.69921875" style="5" customWidth="1"/>
+    <col min="9761" max="9764" width="3.59765625" style="5" customWidth="1"/>
+    <col min="9765" max="9984" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9985" max="10016" width="3.69921875" style="5" customWidth="1"/>
+    <col min="10017" max="10020" width="3.59765625" style="5" customWidth="1"/>
+    <col min="10021" max="10240" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10272" width="3.69921875" style="5" customWidth="1"/>
+    <col min="10273" max="10276" width="3.59765625" style="5" customWidth="1"/>
+    <col min="10277" max="10496" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10528" width="3.69921875" style="5" customWidth="1"/>
+    <col min="10529" max="10532" width="3.59765625" style="5" customWidth="1"/>
+    <col min="10533" max="10752" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10784" width="3.69921875" style="5" customWidth="1"/>
+    <col min="10785" max="10788" width="3.59765625" style="5" customWidth="1"/>
+    <col min="10789" max="11008" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11040" width="3.69921875" style="5" customWidth="1"/>
+    <col min="11041" max="11044" width="3.59765625" style="5" customWidth="1"/>
+    <col min="11045" max="11264" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11296" width="3.69921875" style="5" customWidth="1"/>
+    <col min="11297" max="11300" width="3.59765625" style="5" customWidth="1"/>
+    <col min="11301" max="11520" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11552" width="3.69921875" style="5" customWidth="1"/>
+    <col min="11553" max="11556" width="3.59765625" style="5" customWidth="1"/>
+    <col min="11557" max="11776" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11808" width="3.69921875" style="5" customWidth="1"/>
+    <col min="11809" max="11812" width="3.59765625" style="5" customWidth="1"/>
+    <col min="11813" max="12032" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12064" width="3.69921875" style="5" customWidth="1"/>
+    <col min="12065" max="12068" width="3.59765625" style="5" customWidth="1"/>
+    <col min="12069" max="12288" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12320" width="3.69921875" style="5" customWidth="1"/>
+    <col min="12321" max="12324" width="3.59765625" style="5" customWidth="1"/>
+    <col min="12325" max="12544" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12576" width="3.69921875" style="5" customWidth="1"/>
+    <col min="12577" max="12580" width="3.59765625" style="5" customWidth="1"/>
+    <col min="12581" max="12800" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12832" width="3.69921875" style="5" customWidth="1"/>
+    <col min="12833" max="12836" width="3.59765625" style="5" customWidth="1"/>
+    <col min="12837" max="13056" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13088" width="3.69921875" style="5" customWidth="1"/>
+    <col min="13089" max="13092" width="3.59765625" style="5" customWidth="1"/>
+    <col min="13093" max="13312" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13344" width="3.69921875" style="5" customWidth="1"/>
+    <col min="13345" max="13348" width="3.59765625" style="5" customWidth="1"/>
+    <col min="13349" max="13568" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13600" width="3.69921875" style="5" customWidth="1"/>
+    <col min="13601" max="13604" width="3.59765625" style="5" customWidth="1"/>
+    <col min="13605" max="13824" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13856" width="3.69921875" style="5" customWidth="1"/>
+    <col min="13857" max="13860" width="3.59765625" style="5" customWidth="1"/>
+    <col min="13861" max="14080" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14112" width="3.69921875" style="5" customWidth="1"/>
+    <col min="14113" max="14116" width="3.59765625" style="5" customWidth="1"/>
+    <col min="14117" max="14336" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14368" width="3.69921875" style="5" customWidth="1"/>
+    <col min="14369" max="14372" width="3.59765625" style="5" customWidth="1"/>
+    <col min="14373" max="14592" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14624" width="3.69921875" style="5" customWidth="1"/>
+    <col min="14625" max="14628" width="3.59765625" style="5" customWidth="1"/>
+    <col min="14629" max="14848" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14880" width="3.69921875" style="5" customWidth="1"/>
+    <col min="14881" max="14884" width="3.59765625" style="5" customWidth="1"/>
+    <col min="14885" max="15104" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15136" width="3.69921875" style="5" customWidth="1"/>
+    <col min="15137" max="15140" width="3.59765625" style="5" customWidth="1"/>
+    <col min="15141" max="15360" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15392" width="3.69921875" style="5" customWidth="1"/>
+    <col min="15393" max="15396" width="3.59765625" style="5" customWidth="1"/>
+    <col min="15397" max="15616" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15648" width="3.69921875" style="5" customWidth="1"/>
+    <col min="15649" max="15652" width="3.59765625" style="5" customWidth="1"/>
+    <col min="15653" max="15872" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15904" width="3.69921875" style="5" customWidth="1"/>
+    <col min="15905" max="15908" width="3.59765625" style="5" customWidth="1"/>
+    <col min="15909" max="16128" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16160" width="3.69921875" style="5" customWidth="1"/>
+    <col min="16161" max="16164" width="3.59765625" style="5" customWidth="1"/>
+    <col min="16165" max="16384" width="8.69921875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:176" ht="15.75" customHeight="1">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+    </row>
+    <row r="2" spans="1:176" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="14"/>
+      <c r="BB2" s="14"/>
+      <c r="BC2" s="14"/>
+      <c r="BD2" s="14"/>
+      <c r="BE2" s="14"/>
+      <c r="BF2" s="14"/>
+      <c r="BG2" s="14"/>
+      <c r="BH2" s="14"/>
+      <c r="BI2" s="14"/>
+      <c r="BJ2" s="14"/>
+      <c r="BK2" s="14"/>
+      <c r="BL2" s="14"/>
+      <c r="BM2" s="14"/>
+      <c r="BN2" s="14"/>
+      <c r="BO2" s="14"/>
+      <c r="BP2" s="14"/>
+      <c r="BQ2" s="14"/>
+      <c r="BR2" s="14"/>
+      <c r="BS2" s="14"/>
+      <c r="BT2" s="14"/>
+      <c r="BU2" s="14"/>
+      <c r="BV2" s="14"/>
+      <c r="BW2" s="14"/>
+      <c r="BX2" s="14"/>
+      <c r="BY2" s="14"/>
+      <c r="BZ2" s="14"/>
+      <c r="CA2" s="14"/>
+      <c r="CB2" s="14"/>
+      <c r="CC2" s="14"/>
+      <c r="CD2" s="14"/>
+      <c r="CE2" s="14"/>
+      <c r="CF2" s="14"/>
+      <c r="CG2" s="14"/>
+      <c r="CH2" s="14"/>
+      <c r="CI2" s="14"/>
+      <c r="CJ2" s="14"/>
+      <c r="CK2" s="14"/>
+      <c r="CL2" s="14"/>
+      <c r="CM2" s="14"/>
+      <c r="CN2" s="14"/>
+      <c r="CO2" s="14"/>
+      <c r="CP2" s="14"/>
+      <c r="CQ2" s="14"/>
+      <c r="CR2" s="14"/>
+      <c r="CS2" s="14"/>
+      <c r="CT2" s="14"/>
+      <c r="CU2" s="14"/>
+      <c r="CV2" s="14"/>
+      <c r="CW2" s="14"/>
+      <c r="CX2" s="14"/>
+      <c r="CY2" s="14"/>
+      <c r="CZ2" s="14"/>
+      <c r="DA2" s="14"/>
+      <c r="DB2" s="14"/>
+      <c r="DC2" s="14"/>
+      <c r="DD2" s="14"/>
+      <c r="DE2" s="14"/>
+      <c r="DF2" s="14"/>
+      <c r="DG2" s="14"/>
+      <c r="DH2" s="14"/>
+      <c r="DI2" s="14"/>
+      <c r="DJ2" s="14"/>
+      <c r="DK2" s="14"/>
+      <c r="DL2" s="14"/>
+      <c r="DM2" s="14"/>
+      <c r="DN2" s="14"/>
+      <c r="DO2" s="14"/>
+      <c r="DP2" s="14"/>
+      <c r="DQ2" s="14"/>
+      <c r="DR2" s="14"/>
+      <c r="DS2" s="14"/>
+      <c r="DT2" s="14"/>
+      <c r="DU2" s="14"/>
+      <c r="DV2" s="14"/>
+      <c r="DW2" s="14"/>
+      <c r="DX2" s="14"/>
+      <c r="DY2" s="14"/>
+      <c r="DZ2" s="14"/>
+      <c r="EA2" s="14"/>
+      <c r="EB2" s="14"/>
+      <c r="EC2" s="14"/>
+      <c r="ED2" s="14"/>
+      <c r="EE2" s="14"/>
+      <c r="EF2" s="14"/>
+      <c r="EG2" s="14"/>
+      <c r="EH2" s="14"/>
+      <c r="EI2" s="14"/>
+      <c r="EJ2" s="14"/>
+      <c r="EK2" s="14"/>
+      <c r="EL2" s="14"/>
+      <c r="EM2" s="14"/>
+      <c r="EN2" s="14"/>
+      <c r="EO2" s="14"/>
+      <c r="EP2" s="14"/>
+      <c r="EQ2" s="14"/>
+      <c r="ER2" s="14"/>
+      <c r="ES2" s="14"/>
+      <c r="ET2" s="14"/>
+      <c r="EU2" s="14"/>
+      <c r="EV2" s="14"/>
+      <c r="EW2" s="14"/>
+      <c r="EX2" s="14"/>
+      <c r="EY2" s="14"/>
+      <c r="EZ2" s="14"/>
+      <c r="FA2" s="14"/>
+      <c r="FB2" s="14"/>
+      <c r="FC2" s="14"/>
+      <c r="FD2" s="14"/>
+      <c r="FE2" s="14"/>
+      <c r="FF2" s="14"/>
+      <c r="FG2" s="14"/>
+      <c r="FH2" s="14"/>
+      <c r="FI2" s="14"/>
+      <c r="FJ2" s="14"/>
+      <c r="FK2" s="14"/>
+      <c r="FL2" s="14"/>
+      <c r="FM2" s="14"/>
+      <c r="FN2" s="14"/>
+      <c r="FO2" s="14"/>
+      <c r="FP2" s="14"/>
+      <c r="FQ2" s="14"/>
+      <c r="FR2" s="14"/>
+      <c r="FS2" s="14"/>
+      <c r="FT2" s="14"/>
+    </row>
+    <row r="3" spans="1:176" ht="14.4">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="30"/>
+      <c r="W3" s="46">
+        <v>45048</v>
+      </c>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="13"/>
+    </row>
+    <row r="4" spans="1:176" ht="19.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="13"/>
+    </row>
+    <row r="5" spans="1:176" ht="19.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="Y5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="13"/>
+    </row>
+    <row r="6" spans="1:176" ht="14.4">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="Y6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+    </row>
+    <row r="7" spans="1:176" ht="14.4">
+      <c r="A7" s="13"/>
+      <c r="B7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AF7" s="13"/>
+    </row>
+    <row r="8" spans="1:176" ht="14.4">
+      <c r="A8" s="13"/>
+      <c r="B8" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="62"/>
+      <c r="AF8" s="13"/>
+    </row>
+    <row r="9" spans="1:176" ht="12">
+      <c r="A9" s="13"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="13"/>
+    </row>
+    <row r="10" spans="1:176" ht="12">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="13"/>
+    </row>
+    <row r="11" spans="1:176" ht="12">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="65"/>
+      <c r="AF11" s="13"/>
+    </row>
+    <row r="12" spans="1:176" ht="12">
+      <c r="A12" s="13"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="67"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="13"/>
+    </row>
+    <row r="13" spans="1:176" ht="12">
+      <c r="A13" s="13"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AF13" s="13"/>
+    </row>
+    <row r="14" spans="1:176" ht="12">
+      <c r="A14" s="13"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AF14" s="13"/>
+    </row>
+    <row r="15" spans="1:176" ht="12">
+      <c r="A15" s="13"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="13"/>
+    </row>
+    <row r="16" spans="1:176" ht="12">
+      <c r="A16" s="13"/>
+      <c r="B16" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="13"/>
+    </row>
+    <row r="17" spans="1:32" ht="12">
+      <c r="A17" s="13"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="13"/>
+    </row>
+    <row r="18" spans="1:32" ht="12">
+      <c r="A18" s="13"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="13"/>
+    </row>
+    <row r="19" spans="1:32" ht="15" customHeight="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+    </row>
+    <row r="20" spans="1:32" ht="15" customHeight="1">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+    </row>
+    <row r="21" spans="1:32" s="7" customFormat="1" ht="14.4">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+    </row>
+    <row r="22" spans="1:32" s="7" customFormat="1" ht="14.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="21"/>
+    </row>
+    <row r="23" spans="1:32" s="7" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A23" s="21"/>
+      <c r="B23" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="45"/>
+      <c r="AF23" s="21"/>
+    </row>
+    <row r="24" spans="1:32" ht="29.25" customHeight="1">
+      <c r="A24" s="13"/>
+      <c r="B24" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31">
+        <v>45048</v>
+      </c>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="13"/>
+    </row>
+    <row r="25" spans="1:32" ht="29.25" customHeight="1">
+      <c r="A25" s="13"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="36">
+        <v>45048</v>
+      </c>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="13"/>
+    </row>
+    <row r="26" spans="1:32" ht="29.25" customHeight="1">
+      <c r="A26" s="13"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="36">
+        <v>45048</v>
+      </c>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD26" s="38"/>
+      <c r="AE26" s="38"/>
+      <c r="AF26" s="13"/>
+    </row>
+    <row r="27" spans="1:32" ht="29.25" customHeight="1">
+      <c r="A27" s="13"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="36">
+        <v>45048</v>
+      </c>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD27" s="38"/>
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="13"/>
+    </row>
+    <row r="28" spans="1:32" ht="29.25" customHeight="1">
+      <c r="A28" s="13"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31">
+        <v>45048</v>
+      </c>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="13"/>
+    </row>
+    <row r="29" spans="1:32" ht="29.25" customHeight="1">
+      <c r="A29" s="13"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="31">
+        <v>45048</v>
+      </c>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="13"/>
+    </row>
+    <row r="30" spans="1:32" ht="29.25" customHeight="1">
+      <c r="A30" s="13"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31">
+        <v>45048</v>
+      </c>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD30" s="35"/>
+      <c r="AE30" s="35"/>
+      <c r="AF30" s="13"/>
+    </row>
+    <row r="31" spans="1:32" ht="29.25" customHeight="1">
+      <c r="A31" s="13"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="31">
+        <v>45055</v>
+      </c>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD31" s="34"/>
+      <c r="AE31" s="34"/>
+      <c r="AF31" s="13"/>
+    </row>
+    <row r="32" spans="1:32" ht="29.25" customHeight="1">
+      <c r="A32" s="13"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31">
+        <v>45056</v>
+      </c>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD32" s="34"/>
+      <c r="AE32" s="34"/>
+      <c r="AF32" s="13"/>
+    </row>
+    <row r="33" spans="1:32" ht="29.25" customHeight="1">
+      <c r="A33" s="13"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31">
+        <v>45070</v>
+      </c>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="35"/>
+      <c r="AF33" s="13"/>
+    </row>
+    <row r="34" spans="1:32" ht="29.25" customHeight="1">
+      <c r="A34" s="13"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="34"/>
+      <c r="AE34" s="34"/>
+      <c r="AF34" s="13"/>
+    </row>
+    <row r="35" spans="1:32" ht="29.25" customHeight="1">
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="35"/>
+    </row>
+    <row r="36" spans="1:32" ht="29.25" customHeight="1">
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="35"/>
+    </row>
+    <row r="37" spans="1:32" ht="29.25" customHeight="1">
+      <c r="B37" s="28"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="34"/>
+      <c r="AE37" s="34"/>
+    </row>
+    <row r="38" spans="1:32" ht="29.25" customHeight="1">
+      <c r="B38" s="28"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="34"/>
+      <c r="AD38" s="34"/>
+      <c r="AE38" s="34"/>
+    </row>
+    <row r="39" spans="1:32" ht="29.25" customHeight="1">
+      <c r="B39" s="28"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="34"/>
+      <c r="AE39" s="34"/>
+    </row>
+    <row r="40" spans="1:32" ht="29.25" customHeight="1"/>
+    <row r="41" spans="1:32" ht="29.25" customHeight="1"/>
+    <row r="42" spans="1:32" ht="29.25" customHeight="1"/>
+    <row r="43" spans="1:32" ht="29.25" customHeight="1"/>
+    <row r="44" spans="1:32" ht="29.25" customHeight="1"/>
+    <row r="45" spans="1:32" ht="29.25" customHeight="1"/>
+    <row r="46" spans="1:32" ht="29.25" customHeight="1"/>
+    <row r="47" spans="1:32" ht="29.25" customHeight="1"/>
+    <row r="48" spans="1:32" ht="29.25" customHeight="1"/>
+    <row r="49" ht="29.25" customHeight="1"/>
+    <row r="50" ht="29.25" customHeight="1"/>
+    <row r="51" ht="29.25" customHeight="1"/>
+    <row r="52" ht="29.25" customHeight="1"/>
+    <row r="53" ht="29.25" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="80">
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:AE3"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="F8:Q9"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="W9:Y12"/>
+    <mergeCell ref="Z9:AB12"/>
+    <mergeCell ref="AC9:AE12"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27994068-699A-423E-A1AD-60ED94307E60}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="69"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="70.95" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -2148,195 +7420,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="A1" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="G2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="5"/>
+      <c r="A2" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="D2" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="G2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="69"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="162">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="252">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="D16" s="2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="72">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="144">
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="E18" s="4"/>
       <c r="H18" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="E19" s="4"/>
       <c r="H19" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="E20" s="4"/>
       <c r="H20" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="H21" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2"/>
     </row>
@@ -2354,12 +7626,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9307775C-FDAD-4FEC-9AA1-F7A5249BC81A}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -2376,537 +7648,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="A1" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="G2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="5"/>
+      <c r="A2" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="D2" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="G2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="69"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="126">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="D10" s="2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="144">
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E092427-6842-4445-A08A-D1A82D22F7F8}">
-  <dimension ref="A1:H30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.19921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="198">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="72">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2922,25 +7771,2363 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE9CBA6-0EE5-498C-9ED2-1EB59E2D9FF4}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFC7A4E-D38F-4AD1-9F58-E06FF44A170C}">
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="69"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="144">
+      <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="90">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1476D7B-9FE2-4CCC-A5FC-D0B9BE2EF443}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.3984375" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="69"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="162">
+      <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="97.95" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="43.2" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="72" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="43.2" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E092427-6842-4445-A08A-D1A82D22F7F8}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.69921875" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="69"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="36">
+      <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25644345-B1C0-4809-9E7D-3F53063875DF}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="69"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.399999999999999" customHeight="1">
+      <c r="A12" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99AFFE4-A775-4CD0-A6FA-1D1EB0894E48}">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="69"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="36">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" ht="162">
+      <c r="A27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="D31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="54">
+      <c r="D32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154C489F-8E9A-47AE-8705-23A06B876C20}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="69"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="252">
+      <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="108">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2949,10 +10136,10 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004898E95636345E4BA9B7207E304FF02A" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="565c9b6a8aa100445eb1ff549299857f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2741836-0272-4e3d-8a51-652512547cb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fea20e6e6d2355ca003064106e1f8fa" ns2:_="">
-    <xsd:import namespace="b2741836-0272-4e3d-8a51-652512547cb8"/>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006CA8BB7AF5A5B141B60E23C89B396D11" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="62746eb1d78ebc3451d4db4eb7c635bd">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8a424a7-50d7-4cd5-819d-65031445e48f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="38d8a6a4b62d5c94138e82bba83eb1ac" ns2:_="">
+    <xsd:import namespace="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -2963,6 +10150,10 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2970,7 +10161,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b2741836-0272-4e3d-8a51-652512547cb8" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c8a424a7-50d7-4cd5-819d-65031445e48f" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -2991,6 +10182,30 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="7a3d4e50-da24-4b51-9333-67165e7dee8a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3093,16 +10308,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31C96260-F6F0-437B-8A0B-59B492E42F8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c8a424a7-50d7-4cd5-819d-65031445e48f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120F1888-39C5-479E-B2C4-E2B421ACFC0E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3110,14 +10326,14 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F49AE2C3-4D50-4846-A0C8-25D41A30099E}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C17B0A5D-5177-4FB0-880C-EB3DAEA577DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b2741836-0272-4e3d-8a51-652512547cb8"/>
+    <ds:schemaRef ds:uri="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -3126,4 +10342,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31C96260-F6F0-437B-8A0B-59B492E42F8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/03_DB設計書/サーバサイド設計.xlsx
+++ b/03_DB設計書/サーバサイド設計.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E74DF20-6A47-4150-9CC9-50B4E87CB591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2AD31D-A1E9-4300-BFF0-9592F6382248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="150">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -1382,6 +1382,47 @@
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>諌山</t>
+    <rPh sb="0" eb="2">
+      <t>イサヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桑野</t>
+    <rPh sb="0" eb="2">
+      <t>クワノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ver1.1</t>
+  </si>
+  <si>
+    <t>ver1.2</t>
+  </si>
+  <si>
+    <t>ver1.3</t>
+  </si>
+  <si>
+    <t>ver1.4</t>
+  </si>
+  <si>
+    <t>ver1.5</t>
+  </si>
+  <si>
+    <t>ver1.6</t>
+  </si>
+  <si>
+    <t>ver1.7</t>
+  </si>
+  <si>
+    <t>ver1.8</t>
+  </si>
+  <si>
+    <t>ver1.9</t>
   </si>
 </sst>
 </file>
@@ -1800,13 +1841,58 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1857,15 +1943,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1882,42 +1959,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5267,7 +5308,9 @@
   </sheetPr>
   <dimension ref="A1:FT53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33:AB33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -5702,18 +5745,18 @@
       <c r="U3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="29"/>
-      <c r="W3" s="30">
+      <c r="V3" s="30"/>
+      <c r="W3" s="46">
         <v>45048</v>
       </c>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="30"/>
       <c r="AF3" s="13"/>
     </row>
     <row r="4" spans="1:176" ht="19">
@@ -5825,20 +5868,20 @@
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="19"/>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="34"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="49"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
@@ -5856,80 +5899,86 @@
     </row>
     <row r="8" spans="1:176" ht="14">
       <c r="A8" s="13"/>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="41" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="43"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="58"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
-      <c r="W8" s="47" t="s">
+      <c r="W8" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47" t="s">
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47" t="s">
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="62"/>
       <c r="AF8" s="13"/>
     </row>
     <row r="9" spans="1:176" ht="12">
       <c r="A9" s="13"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="46"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="61"/>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="50"/>
+      <c r="W9" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="45"/>
       <c r="AF9" s="13"/>
     </row>
     <row r="10" spans="1:176" ht="12">
@@ -5955,15 +6004,15 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="53"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="65"/>
       <c r="AF10" s="13"/>
     </row>
     <row r="11" spans="1:176" ht="12">
@@ -5989,15 +6038,15 @@
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="51"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="53"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="65"/>
       <c r="AF11" s="13"/>
     </row>
     <row r="12" spans="1:176" ht="12">
@@ -6023,15 +6072,15 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="56"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="67"/>
+      <c r="AE12" s="68"/>
       <c r="AF12" s="13"/>
     </row>
     <row r="13" spans="1:176" ht="12">
@@ -6126,106 +6175,106 @@
     </row>
     <row r="16" spans="1:176" ht="12">
       <c r="A16" s="13"/>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="42"/>
       <c r="AF16" s="13"/>
     </row>
     <row r="17" spans="1:32" ht="12">
       <c r="A17" s="13"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="57"/>
-      <c r="AB17" s="57"/>
-      <c r="AC17" s="57"/>
-      <c r="AD17" s="57"/>
-      <c r="AE17" s="57"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="42"/>
       <c r="AF17" s="13"/>
     </row>
     <row r="18" spans="1:32" ht="12">
       <c r="A18" s="13"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="57"/>
-      <c r="AC18" s="57"/>
-      <c r="AD18" s="57"/>
-      <c r="AE18" s="57"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="42"/>
       <c r="AF18" s="13"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -6367,41 +6416,41 @@
       <c r="B23" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
       <c r="J23" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="48" t="s">
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="49"/>
-      <c r="AE23" s="50"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="45"/>
       <c r="AF23" s="21"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
@@ -6409,596 +6458,614 @@
       <c r="B24" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="58">
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31">
         <v>45048</v>
       </c>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="60"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="33"/>
       <c r="J24" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="61" t="s">
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="AD24" s="61"/>
-      <c r="AE24" s="61"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
       <c r="AF24" s="13"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="13"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="62">
+      <c r="B25" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="36">
         <v>45048</v>
       </c>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="64"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="39"/>
       <c r="J25" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="61" t="s">
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="AD25" s="61"/>
-      <c r="AE25" s="61"/>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="38"/>
       <c r="AF25" s="13"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="13"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="62">
+      <c r="B26" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="36">
         <v>45048</v>
       </c>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="65" t="s">
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="65"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="65"/>
-      <c r="Y26" s="65"/>
-      <c r="Z26" s="65"/>
-      <c r="AA26" s="65"/>
-      <c r="AB26" s="65"/>
-      <c r="AC26" s="61" t="s">
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="AD26" s="61"/>
-      <c r="AE26" s="61"/>
+      <c r="AD26" s="38"/>
+      <c r="AE26" s="38"/>
       <c r="AF26" s="13"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="13"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="62">
+      <c r="B27" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="36">
         <v>45048</v>
       </c>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="66" t="s">
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="67"/>
-      <c r="AA27" s="67"/>
-      <c r="AB27" s="67"/>
-      <c r="AC27" s="61" t="s">
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="AD27" s="61"/>
-      <c r="AE27" s="61"/>
+      <c r="AD27" s="38"/>
+      <c r="AE27" s="38"/>
       <c r="AF27" s="13"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="13"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="58">
+      <c r="B28" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31">
         <v>45048</v>
       </c>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="60"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="33"/>
       <c r="J28" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="65" t="s">
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="AD28" s="65"/>
-      <c r="AE28" s="65"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
       <c r="AF28" s="13"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="13"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="58">
+      <c r="B29" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="31">
         <v>45048</v>
       </c>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="60"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="33"/>
       <c r="J29" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="65" t="s">
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="AD29" s="65"/>
-      <c r="AE29" s="65"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
       <c r="AF29" s="13"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="13"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="58">
+      <c r="B30" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31">
         <v>45048</v>
       </c>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="60"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="33"/>
       <c r="J30" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="68" t="s">
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="AD30" s="68"/>
-      <c r="AE30" s="68"/>
+      <c r="AD30" s="35"/>
+      <c r="AE30" s="35"/>
       <c r="AF30" s="13"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="13"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="58">
+      <c r="B31" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="31">
         <v>45055</v>
       </c>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="60"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="33"/>
       <c r="J31" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="65" t="s">
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AD31" s="65"/>
-      <c r="AE31" s="65"/>
+      <c r="AD31" s="34"/>
+      <c r="AE31" s="34"/>
       <c r="AF31" s="13"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="13"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="58">
+      <c r="B32" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31">
         <v>45056</v>
       </c>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="60"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="33"/>
       <c r="J32" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
-      <c r="AB32" s="31"/>
-      <c r="AC32" s="65" t="s">
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="AD32" s="65"/>
-      <c r="AE32" s="65"/>
+      <c r="AD32" s="34"/>
+      <c r="AE32" s="34"/>
       <c r="AF32" s="13"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="13"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="58">
+      <c r="B33" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31">
         <v>45070</v>
       </c>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="60"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="33"/>
       <c r="J33" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="31"/>
-      <c r="AC33" s="68" t="s">
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="AD33" s="68"/>
-      <c r="AE33" s="68"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="35"/>
       <c r="AF33" s="13"/>
     </row>
     <row r="34" spans="1:32" ht="29.25" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" s="28"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="60"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="33"/>
       <c r="J34" s="28"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="65"/>
-      <c r="AD34" s="65"/>
-      <c r="AE34" s="65"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="34"/>
+      <c r="AE34" s="34"/>
       <c r="AF34" s="13"/>
     </row>
     <row r="35" spans="1:32" ht="29.25" customHeight="1">
       <c r="B35" s="28"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="60"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="33"/>
       <c r="J35" s="28"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="68"/>
-      <c r="AD35" s="68"/>
-      <c r="AE35" s="68"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="35"/>
     </row>
     <row r="36" spans="1:32" ht="29.25" customHeight="1">
       <c r="B36" s="28"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="60"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="33"/>
       <c r="J36" s="28"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="68"/>
-      <c r="AD36" s="68"/>
-      <c r="AE36" s="68"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="35"/>
     </row>
     <row r="37" spans="1:32" ht="29.25" customHeight="1">
       <c r="B37" s="28"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="60"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="33"/>
       <c r="J37" s="28"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="31"/>
-      <c r="AB37" s="31"/>
-      <c r="AC37" s="65"/>
-      <c r="AD37" s="65"/>
-      <c r="AE37" s="65"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="34"/>
+      <c r="AE37" s="34"/>
     </row>
     <row r="38" spans="1:32" ht="29.25" customHeight="1">
       <c r="B38" s="28"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="60"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="33"/>
       <c r="J38" s="28"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31"/>
-      <c r="AC38" s="65"/>
-      <c r="AD38" s="65"/>
-      <c r="AE38" s="65"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="34"/>
+      <c r="AD38" s="34"/>
+      <c r="AE38" s="34"/>
     </row>
     <row r="39" spans="1:32" ht="29.25" customHeight="1">
       <c r="B39" s="28"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="60"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="33"/>
       <c r="J39" s="28"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="31"/>
-      <c r="AC39" s="65"/>
-      <c r="AD39" s="65"/>
-      <c r="AE39" s="65"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="34"/>
+      <c r="AE39" s="34"/>
     </row>
     <row r="40" spans="1:32" ht="29.25" customHeight="1"/>
     <row r="41" spans="1:32" ht="29.25" customHeight="1"/>
@@ -7016,75 +7083,6 @@
     <row r="53" ht="29.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:AB39"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:AE3"/>
     <mergeCell ref="F7:Q7"/>
@@ -7096,6 +7094,75 @@
     <mergeCell ref="W9:Y12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="AC9:AE12"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -7111,7 +7178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27994068-699A-423E-A1AD-60ED94307E60}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -7402,8 +7469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="A14" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -7630,7 +7697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9307775C-FDAD-4FEC-9AA1-F7A5249BC81A}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -7774,7 +7841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFC7A4E-D38F-4AD1-9F58-E06FF44A170C}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -8580,8 +8647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E092427-6842-4445-A08A-D1A82D22F7F8}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -9285,7 +9352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99AFFE4-A775-4CD0-A6FA-1D1EB0894E48}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -9726,8 +9793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154C489F-8E9A-47AE-8705-23A06B876C20}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="D12" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -10128,6 +10195,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006CA8BB7AF5A5B141B60E23C89B396D11" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="62746eb1d78ebc3451d4db4eb7c635bd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8a424a7-50d7-4cd5-819d-65031445e48f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="38d8a6a4b62d5c94138e82bba83eb1ac" ns2:_="">
     <xsd:import namespace="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
@@ -10299,15 +10375,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -10319,6 +10386,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120F1888-39C5-479E-B2C4-E2B421ACFC0E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C17B0A5D-5177-4FB0-880C-EB3DAEA577DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10332,14 +10407,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120F1888-39C5-479E-B2C4-E2B421ACFC0E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/03_DB設計書/サーバサイド設計.xlsx
+++ b/03_DB設計書/サーバサイド設計.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2AD31D-A1E9-4300-BFF0-9592F6382248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D459C85D-0C79-4B3E-9320-CCDB818A27DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="161">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -378,19 +378,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザ登録画面を表示</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>処理</t>
     <rPh sb="0" eb="2">
       <t>ショリ</t>
@@ -399,13 +386,6 @@
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ登録画面</t>
-    <rPh sb="3" eb="7">
-      <t>トウロクガメン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -890,49 +870,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【氏名】入力
-【ニックネーム】入力
-【住所】入力
-【番地】入力
-【電話番号】入力
-【メールアドレス】入力
-【更新する】クリック</t>
-    <rPh sb="1" eb="3">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t xml:space="preserve">ジュウショ </t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t xml:space="preserve">ニュウリョク </t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t xml:space="preserve">バンチ </t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t xml:space="preserve">ニュウリョク </t>
-    </rPh>
-    <rPh sb="33" eb="37">
-      <t xml:space="preserve">デンワバンゴウ </t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t xml:space="preserve">ニュウリョク </t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t xml:space="preserve">コウシンスル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ProfileRegist.php</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -989,9 +926,248 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>【ユーザID】入力
+【パスワード】入力
+【ログイン】クリック</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comments_id (I)
+threads_id (R)
+user_id (R)
+post_date (I)
+comment (I)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id (I)
+user_name（I）
+user_niku（I）
+user_zip (I)
+user_address（I）
+user_number（I）
+user_mail(I)
+user_pass(I)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【タイトル】入力
+【投稿内容】入力
+【投稿する】クリック</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>トウコウナイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿内容を削除</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【パスワード】変更クリック</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PassCheck.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード確認画面</t>
+    <rPh sb="5" eb="9">
+      <t>カクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード変更画面</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【現在のパスワード】入力
+【変更する】クリック</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未入力チェック
+変更パスワード入力
+変更パスワード（確認）入力
+一致した場合はOK
+チェックOKの場合
+PassRegist.php呼出
+チェックNGの場合
+Profile.php呼出</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヨビダシ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>バ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id(R)
+user_pass（U）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id(R)
+user_name（U）
+user_niku（U）
+user_address（U）
+user_number（U）
+user_mail(U)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード変更処理　作成</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>諌山</t>
+    <rPh sb="0" eb="2">
+      <t>イサヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桑野</t>
+    <rPh sb="0" eb="2">
+      <t>クワノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ver1.1</t>
+  </si>
+  <si>
+    <t>ver1.2</t>
+  </si>
+  <si>
+    <t>ver1.3</t>
+  </si>
+  <si>
+    <t>ver1.4</t>
+  </si>
+  <si>
+    <t>ver1.5</t>
+  </si>
+  <si>
+    <t>ver1.6</t>
+  </si>
+  <si>
+    <t>ver1.7</t>
+  </si>
+  <si>
+    <t>ver1.8</t>
+  </si>
+  <si>
+    <t>ver1.9</t>
+  </si>
+  <si>
+    <t>新規ユーザ登録画面を表示</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ユーザ登録画面</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>【氏名】入力
 【ニックネーム】入力
-【〒（郵便番号）】入力
+【〒】入力
 【住所】入力
 【番地】入力
 【電話番号】入力
@@ -1008,43 +1184,40 @@
     <rPh sb="15" eb="17">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="21" eb="25">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
+    <rPh sb="21" eb="23">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="31" eb="33">
+    <rPh sb="25" eb="27">
       <t>ジュウショ</t>
     </rPh>
-    <rPh sb="34" eb="36">
+    <rPh sb="28" eb="30">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="38" eb="40">
+    <rPh sb="32" eb="34">
       <t>バンチ</t>
     </rPh>
-    <rPh sb="41" eb="43">
+    <rPh sb="35" eb="37">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="45" eb="49">
+    <rPh sb="39" eb="43">
       <t>デンワバンゴウ</t>
     </rPh>
-    <rPh sb="50" eb="52">
+    <rPh sb="44" eb="46">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="62" eb="64">
+    <rPh sb="56" eb="58">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="72" eb="74">
+    <rPh sb="66" eb="68">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="81" eb="84">
+    <rPh sb="75" eb="78">
       <t>サイカクニン</t>
     </rPh>
-    <rPh sb="84" eb="87">
+    <rPh sb="78" eb="81">
       <t>｣ニュウリョク</t>
     </rPh>
-    <rPh sb="89" eb="91">
+    <rPh sb="83" eb="85">
       <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1053,6 +1226,7 @@
     <t>未入力チェック
 氏名入力チェック
 ニックネーム入力チェック
+〒入力チェック
 住所入力チェック
 番地入力チェック
 電話番号入力チェック
@@ -1074,90 +1248,46 @@
     <rPh sb="23" eb="25">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="30" eb="32">
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
       <t>ジュウショ</t>
     </rPh>
-    <rPh sb="32" eb="34">
+    <rPh sb="40" eb="42">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="39" eb="41">
+    <rPh sb="47" eb="49">
       <t>バンチ</t>
     </rPh>
-    <rPh sb="41" eb="43">
+    <rPh sb="49" eb="51">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="48" eb="52">
+    <rPh sb="56" eb="60">
       <t>デンワバンゴウ</t>
     </rPh>
-    <rPh sb="52" eb="54">
+    <rPh sb="60" eb="62">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="76" eb="78">
+    <rPh sb="84" eb="86">
       <t>イッチ</t>
     </rPh>
-    <rPh sb="91" eb="93">
+    <rPh sb="99" eb="101">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="108" eb="110">
+    <rPh sb="116" eb="118">
       <t>ヨビダシ</t>
     </rPh>
-    <rPh sb="119" eb="121">
+    <rPh sb="127" eb="129">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="135" eb="137">
+    <rPh sb="143" eb="145">
       <t>ヨビダシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【ユーザID】入力
-【パスワード】入力
-【ログイン】クリック</t>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>threads_id（I）
-user_id (R)
-threads_title（I）
-threads_date (I)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>comments_id (I)
-threads_id (R)
-user_id (R)
-post_date (I)
-comment(I)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>comments_id (I)
-threads_id (R)
-user_id (R)
-post_date (I)
-comment (I)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_id (I)
-user_name（I）
-user_niku（I）
-user_zip (I)
-user_address（I）
-user_number（I）
-user_mail(I)
-user_pass(I)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>未入力チェック
-返信入力チェック
 チェックOKの場合
 ReplyRegist.php呼出
 チェックNGの場合
@@ -1165,127 +1295,107 @@
     <rPh sb="0" eb="3">
       <t>ミニュウリョク</t>
     </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヘンシン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
+    <rPh sb="16" eb="18">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="43" eb="45">
+    <rPh sb="34" eb="36">
       <t>ヨビダシ</t>
     </rPh>
-    <rPh sb="54" eb="56">
+    <rPh sb="45" eb="47">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="66" eb="68">
+    <rPh sb="57" eb="59">
       <t>ヨビダシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【タイトル】入力
-【投稿内容】入力
-【投稿する】クリック</t>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>トウコウナイヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>トウコウ</t>
+    <t>ReplyRegist.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信画面</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンシンガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>未入力チェック
-タイトル入力チェック
-投稿内容入力チェック
 チェックOKの場合PostRegist.php呼出
 チェックNGの場合
 Post.php呼出</t>
     <rPh sb="0" eb="3">
       <t>ミニュウリョク</t>
     </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>トウコウナイヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="38" eb="40">
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヨビダシ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
       <t>バアイ</t>
     </rPh>
     <rPh sb="54" eb="56">
       <t>ヨビダシ</t>
     </rPh>
-    <rPh sb="65" eb="67">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ヨビダシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投稿内容を削除</t>
-    <rPh sb="0" eb="4">
-      <t>トウコウナイヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【パスワード】変更クリック</t>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PassCheck.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード確認画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>threads_id（I）
+user_id (I)
+threads_title（I）
+threads_date (I)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comments_id (I)
+threads_id (I)
+user_id (I)
+post_date (I)
+comment(I)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comments_id (R)
+threads_id (R)
+user_id (R)
+post_date (R)
+comment(R)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comments_id (D)
+threads_id (D)
+user_id (D)
+post_date (D)
+comment(D)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserPass.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード確認画面を表示</t>
     <rPh sb="5" eb="9">
       <t>カクニンガメン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード変更画面</t>
-    <rPh sb="5" eb="7">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【現在のパスワード】入力
-【変更する】クリック</t>
-    <rPh sb="1" eb="3">
-      <t>ゲンザイ</t>
-    </rPh>
     <rPh sb="10" eb="12">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘンコウ</t>
-    </rPh>
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id (R)
+user_name（R）
+user_niku（R）
+user_zip (R)
+user_address（R）
+user_number（R）
+user_mail(R)
+user_pass(R)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1304,8 +1414,8 @@
     <rPh sb="21" eb="23">
       <t>カクニン</t>
     </rPh>
-    <rPh sb="24" eb="27">
-      <t>｣ニュウリョク</t>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
     </rPh>
     <rPh sb="29" eb="31">
       <t>ヘンコウ</t>
@@ -1314,115 +1424,137 @@
   </si>
   <si>
     <t>未入力チェック
-変更パスワード入力
-変更パスワード（確認）入力
-一致した場合はOK
+現在のパスワードを入力
 チェックOKの場合
-PassRegist.php呼出
+PassCheck.php
+チェックNGの場合
+UserPass.php</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id (R)
+user_pass(R)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【氏名】入力
+【ニックネーム】入力
+【〒】入力
+【住所】入力
+【番地】入力
+【電話番号】入力
+【メールアドレス】入力
+【更新する】クリック</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">ジュウショ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">ニュウリョク </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">バンチ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">ニュウリョク </t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t xml:space="preserve">デンワバンゴウ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">ニュウリョク </t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t xml:space="preserve">コウシンスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名入力チェック
+ニックネーム入力チェック
+〒入力チェック
+住所入力チェック
+番地入力チェック
+電話番号入力チェック
+メールアドレスチェック
+パスワード一致チェック
+チェックOKの場合
+ProfileRegist.php呼出
 チェックNGの場合
 Profile.php呼出</t>
-    <rPh sb="0" eb="3">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヘンコウ</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
     </rPh>
     <rPh sb="15" eb="17">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
+    <rPh sb="23" eb="25">
       <t>ニュウリョク</t>
     </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジュウショ</t>
+    </rPh>
     <rPh sb="32" eb="34">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
       <t>イッチ</t>
     </rPh>
-    <rPh sb="36" eb="38">
+    <rPh sb="91" eb="93">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="49" eb="51">
+    <rPh sb="111" eb="113">
+      <t>ヨビダシ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="66" eb="68">
+    <rPh sb="136" eb="138">
       <t>ヨビダシ</t>
     </rPh>
-    <rPh sb="77" eb="78">
-      <t>バ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_id(R)
-user_pass（U）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_id(R)
-user_name（U）
-user_niku（U）
-user_address（U）
-user_number（U）
-user_mail(U)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード変更処理　作成</t>
-    <rPh sb="5" eb="7">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>諌山</t>
-    <rPh sb="0" eb="2">
-      <t>イサヤマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>桑野</t>
-    <rPh sb="0" eb="2">
-      <t>クワノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ver1.1</t>
-  </si>
-  <si>
-    <t>ver1.2</t>
-  </si>
-  <si>
-    <t>ver1.3</t>
-  </si>
-  <si>
-    <t>ver1.4</t>
-  </si>
-  <si>
-    <t>ver1.5</t>
-  </si>
-  <si>
-    <t>ver1.6</t>
-  </si>
-  <si>
-    <t>ver1.7</t>
-  </si>
-  <si>
-    <t>ver1.8</t>
-  </si>
-  <si>
-    <t>ver1.9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>threads_title（R）</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1773,7 +1905,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1841,58 +1973,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1943,6 +2030,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1961,6 +2057,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1971,6 +2103,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2782,6 +2920,66 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1118235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1384935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矢印: 右 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8743BC0-69D3-46F8-ABAE-18232F5E88D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3305175" y="2032635"/>
+          <a:ext cx="561975" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3115,6 +3313,66 @@
         <a:xfrm>
           <a:off x="3244215" y="3314700"/>
           <a:ext cx="523875" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>405765</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矢印: 右 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97445DE9-3AE6-4576-8F54-1578FE70B6B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7885165">
+          <a:off x="3089910" y="6305550"/>
+          <a:ext cx="542925" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3572,6 +3830,66 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1116330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矢印: 右 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5FFA35-3482-42D7-AD2F-8DC5FF94E4B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8556268">
+          <a:off x="3150870" y="6145530"/>
+          <a:ext cx="542925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3700,15 +4018,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>417845</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>439557</xdr:rowOff>
+      <xdr:colOff>195746</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>13701</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>22125</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>470586</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>224474</xdr:rowOff>
+      <xdr:rowOff>155690</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3723,8 +4041,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="7464922">
-          <a:off x="3074190" y="3394303"/>
-          <a:ext cx="1156517" cy="276225"/>
+          <a:off x="2898691" y="4976476"/>
+          <a:ext cx="1056389" cy="274840"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3785,6 +4103,126 @@
         <a:xfrm>
           <a:off x="3167481" y="2498225"/>
           <a:ext cx="517525" cy="382002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>81915</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矢印: 右 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6AFA9E4-A57D-4D0D-ADDC-01A48B1F6E2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429375" y="754380"/>
+          <a:ext cx="523875" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>36195</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>560070</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>274320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矢印: 右 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46CD3FF4-AA8A-43AB-9DE5-35EDBDF34C06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6383655" y="2522220"/>
+          <a:ext cx="523875" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3949,196 +4387,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矢印: 右 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CA65B80-03F4-40E4-95CE-753523FD16E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3236595" y="838200"/>
-          <a:ext cx="516255" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2420157</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>216289</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>180072</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>16264</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矢印: 右 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ADC82B3-93E3-4040-BA42-514782747499}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="8123381">
-          <a:off x="2930697" y="1587889"/>
-          <a:ext cx="1006035" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>704851</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133348</xdr:rowOff>
+      <xdr:colOff>778082</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>37718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>990601</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>177928</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矢印: 右 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20174F00-F750-4CBC-8A3A-5E7E709E9ED8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="3076624" y="3435961"/>
-          <a:ext cx="4608844" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1056863</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>112060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1333088</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>226209</xdr:rowOff>
+      <xdr:colOff>1152292</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>204439</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4153,8 +4411,68 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="1298519" y="5465875"/>
-          <a:ext cx="808913" cy="276225"/>
+          <a:off x="5184338" y="6606120"/>
+          <a:ext cx="631355" cy="374210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>196538</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>68481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>525820</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>113118</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矢印: 右 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B066A2EC-CF35-4496-A9C4-8586154A4013}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8456616">
+          <a:off x="3291001" y="8357554"/>
+          <a:ext cx="989063" cy="276954"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -4190,31 +4508,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1015028</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>96332</xdr:rowOff>
+      <xdr:colOff>2586623</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>187679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1291253</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>109667</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5213</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="矢印: 右 9">
+        <xdr:cNvPr id="5" name="矢印: 右 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA653E43-C453-4FD3-BCAD-2B7DFCB6D85A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E46B7E7-8DFC-40D8-BAFB-50F14CF71938}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="1191297" y="3438710"/>
-          <a:ext cx="939688" cy="276225"/>
+        <a:xfrm>
+          <a:off x="3100530" y="878795"/>
+          <a:ext cx="670381" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -4250,22 +4568,82 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>16567</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>844569</xdr:rowOff>
+      <xdr:colOff>283183</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>149688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>22413</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>1120794</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>547451</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>276645</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="矢印: 右 10">
+        <xdr:cNvPr id="6" name="矢印: 右 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61DEE9DB-C755-42EC-A1F3-085C27D5E2E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DEF50B0-8956-4442-B5D4-997B64EBA4F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8024121">
+          <a:off x="2992257" y="1463265"/>
+          <a:ext cx="1048446" cy="264268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>45442</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>224894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>629094</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>443024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矢印: 右 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F546038D-405A-466F-A3C1-A1D31866E075}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4273,8 +4651,68 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3109391" y="7089981"/>
-          <a:ext cx="670728" cy="276225"/>
+          <a:off x="3146605" y="2067871"/>
+          <a:ext cx="583652" cy="218130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38353</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>235527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>622005</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>453657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矢印: 右 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{029FF54A-45E4-4C54-8688-768102D9AD4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6621679" y="2078504"/>
+          <a:ext cx="583652" cy="218130"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -4310,31 +4748,211 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>656077</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>39212</xdr:rowOff>
+      <xdr:colOff>806302</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>8861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>932302</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>12187</xdr:rowOff>
+      <xdr:colOff>1032896</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228836</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="矢印: 右 11">
+        <xdr:cNvPr id="15" name="矢印: 右 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B557BF-6BB7-4EE7-ABEE-622AAB919885}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43863E6E-BF45-447C-A09D-C2E38CB1B578}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4994967" y="8534793"/>
-          <a:ext cx="667739" cy="276225"/>
+        <a:xfrm rot="16200000">
+          <a:off x="5239844" y="1272598"/>
+          <a:ext cx="450348" cy="226594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>56074</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>173503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>639726</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161261</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矢印: 右 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80104D2A-C03E-4604-938A-6C51061DFCD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8491065">
+          <a:off x="3157237" y="3841736"/>
+          <a:ext cx="583652" cy="218130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>13544</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>317043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>597196</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>535173</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矢印: 右 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC64B35E-2B42-4A95-BB8B-F6F24CED7E7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3114707" y="4676392"/>
+          <a:ext cx="583652" cy="218130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>36668</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>115412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>617511</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>295442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="矢印: 右 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11F26FF2-2FEA-40A4-A8D7-43EDBAFDC0C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6606595" y="7484510"/>
+          <a:ext cx="580843" cy="180030"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -4370,91 +4988,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2029144</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>376911</xdr:rowOff>
+      <xdr:colOff>751273</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1812073</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2990</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>653136</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>947853</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>31357</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="矢印: 右 12">
+        <xdr:cNvPr id="19" name="矢印: 右 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B0255B9-CEB0-486F-90DC-F96E1A88C255}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05B1440-3DDD-48DD-B451-3ABF233A384B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6563791" y="9603087"/>
-          <a:ext cx="670728" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2566172</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>77774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>312089</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>122411</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="矢印: 右 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B066A2EC-CF35-4496-A9C4-8586154A4013}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="8456616">
-          <a:off x="3074172" y="10678539"/>
-          <a:ext cx="995623" cy="276225"/>
+        <a:xfrm rot="16200000">
+          <a:off x="5127104" y="3829608"/>
+          <a:ext cx="514576" cy="196580"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -4912,6 +5470,66 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85780</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>98287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>602035</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>136387</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矢印: 右 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B05D773-0681-41DF-8952-B76F319625F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6645606" y="794026"/>
+          <a:ext cx="516255" cy="270013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5005,6 +5623,66 @@
         <a:xfrm rot="8123381">
           <a:off x="2938317" y="1587889"/>
           <a:ext cx="1013655" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>70823</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>37617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>587078</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>307211</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矢印: 右 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433369B5-AFC7-410B-905C-DA09357401E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6369380" y="963592"/>
+          <a:ext cx="516255" cy="269594"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -5308,206 +5986,204 @@
   </sheetPr>
   <dimension ref="A1:FT53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33:AB33"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="3.6640625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="3.6640625" style="8" customWidth="1"/>
-    <col min="7" max="32" width="3.6640625" style="5" customWidth="1"/>
-    <col min="33" max="36" width="3.58203125" style="5" customWidth="1"/>
-    <col min="37" max="256" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="257" max="288" width="3.6640625" style="5" customWidth="1"/>
-    <col min="289" max="292" width="3.58203125" style="5" customWidth="1"/>
-    <col min="293" max="512" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="513" max="544" width="3.6640625" style="5" customWidth="1"/>
-    <col min="545" max="548" width="3.58203125" style="5" customWidth="1"/>
-    <col min="549" max="768" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="769" max="800" width="3.6640625" style="5" customWidth="1"/>
-    <col min="801" max="804" width="3.58203125" style="5" customWidth="1"/>
-    <col min="805" max="1024" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1056" width="3.6640625" style="5" customWidth="1"/>
-    <col min="1057" max="1060" width="3.58203125" style="5" customWidth="1"/>
-    <col min="1061" max="1280" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1312" width="3.6640625" style="5" customWidth="1"/>
-    <col min="1313" max="1316" width="3.58203125" style="5" customWidth="1"/>
-    <col min="1317" max="1536" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1568" width="3.6640625" style="5" customWidth="1"/>
-    <col min="1569" max="1572" width="3.58203125" style="5" customWidth="1"/>
-    <col min="1573" max="1792" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1824" width="3.6640625" style="5" customWidth="1"/>
-    <col min="1825" max="1828" width="3.58203125" style="5" customWidth="1"/>
-    <col min="1829" max="2048" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2080" width="3.6640625" style="5" customWidth="1"/>
-    <col min="2081" max="2084" width="3.58203125" style="5" customWidth="1"/>
-    <col min="2085" max="2304" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2336" width="3.6640625" style="5" customWidth="1"/>
-    <col min="2337" max="2340" width="3.58203125" style="5" customWidth="1"/>
-    <col min="2341" max="2560" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2592" width="3.6640625" style="5" customWidth="1"/>
-    <col min="2593" max="2596" width="3.58203125" style="5" customWidth="1"/>
-    <col min="2597" max="2816" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2848" width="3.6640625" style="5" customWidth="1"/>
-    <col min="2849" max="2852" width="3.58203125" style="5" customWidth="1"/>
-    <col min="2853" max="3072" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3104" width="3.6640625" style="5" customWidth="1"/>
-    <col min="3105" max="3108" width="3.58203125" style="5" customWidth="1"/>
-    <col min="3109" max="3328" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3360" width="3.6640625" style="5" customWidth="1"/>
-    <col min="3361" max="3364" width="3.58203125" style="5" customWidth="1"/>
-    <col min="3365" max="3584" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3616" width="3.6640625" style="5" customWidth="1"/>
-    <col min="3617" max="3620" width="3.58203125" style="5" customWidth="1"/>
-    <col min="3621" max="3840" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3872" width="3.6640625" style="5" customWidth="1"/>
-    <col min="3873" max="3876" width="3.58203125" style="5" customWidth="1"/>
-    <col min="3877" max="4096" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4128" width="3.6640625" style="5" customWidth="1"/>
-    <col min="4129" max="4132" width="3.58203125" style="5" customWidth="1"/>
-    <col min="4133" max="4352" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4384" width="3.6640625" style="5" customWidth="1"/>
-    <col min="4385" max="4388" width="3.58203125" style="5" customWidth="1"/>
-    <col min="4389" max="4608" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4640" width="3.6640625" style="5" customWidth="1"/>
-    <col min="4641" max="4644" width="3.58203125" style="5" customWidth="1"/>
-    <col min="4645" max="4864" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4896" width="3.6640625" style="5" customWidth="1"/>
-    <col min="4897" max="4900" width="3.58203125" style="5" customWidth="1"/>
-    <col min="4901" max="5120" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5152" width="3.6640625" style="5" customWidth="1"/>
-    <col min="5153" max="5156" width="3.58203125" style="5" customWidth="1"/>
-    <col min="5157" max="5376" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5408" width="3.6640625" style="5" customWidth="1"/>
-    <col min="5409" max="5412" width="3.58203125" style="5" customWidth="1"/>
-    <col min="5413" max="5632" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5664" width="3.6640625" style="5" customWidth="1"/>
-    <col min="5665" max="5668" width="3.58203125" style="5" customWidth="1"/>
-    <col min="5669" max="5888" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5920" width="3.6640625" style="5" customWidth="1"/>
-    <col min="5921" max="5924" width="3.58203125" style="5" customWidth="1"/>
-    <col min="5925" max="6144" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6176" width="3.6640625" style="5" customWidth="1"/>
-    <col min="6177" max="6180" width="3.58203125" style="5" customWidth="1"/>
-    <col min="6181" max="6400" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6432" width="3.6640625" style="5" customWidth="1"/>
-    <col min="6433" max="6436" width="3.58203125" style="5" customWidth="1"/>
-    <col min="6437" max="6656" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6688" width="3.6640625" style="5" customWidth="1"/>
-    <col min="6689" max="6692" width="3.58203125" style="5" customWidth="1"/>
-    <col min="6693" max="6912" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6944" width="3.6640625" style="5" customWidth="1"/>
-    <col min="6945" max="6948" width="3.58203125" style="5" customWidth="1"/>
-    <col min="6949" max="7168" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7200" width="3.6640625" style="5" customWidth="1"/>
-    <col min="7201" max="7204" width="3.58203125" style="5" customWidth="1"/>
-    <col min="7205" max="7424" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7456" width="3.6640625" style="5" customWidth="1"/>
-    <col min="7457" max="7460" width="3.58203125" style="5" customWidth="1"/>
-    <col min="7461" max="7680" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7712" width="3.6640625" style="5" customWidth="1"/>
-    <col min="7713" max="7716" width="3.58203125" style="5" customWidth="1"/>
-    <col min="7717" max="7936" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7968" width="3.6640625" style="5" customWidth="1"/>
-    <col min="7969" max="7972" width="3.58203125" style="5" customWidth="1"/>
-    <col min="7973" max="8192" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8224" width="3.6640625" style="5" customWidth="1"/>
-    <col min="8225" max="8228" width="3.58203125" style="5" customWidth="1"/>
-    <col min="8229" max="8448" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8480" width="3.6640625" style="5" customWidth="1"/>
-    <col min="8481" max="8484" width="3.58203125" style="5" customWidth="1"/>
-    <col min="8485" max="8704" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8736" width="3.6640625" style="5" customWidth="1"/>
-    <col min="8737" max="8740" width="3.58203125" style="5" customWidth="1"/>
-    <col min="8741" max="8960" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8992" width="3.6640625" style="5" customWidth="1"/>
-    <col min="8993" max="8996" width="3.58203125" style="5" customWidth="1"/>
-    <col min="8997" max="9216" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9248" width="3.6640625" style="5" customWidth="1"/>
-    <col min="9249" max="9252" width="3.58203125" style="5" customWidth="1"/>
-    <col min="9253" max="9472" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9504" width="3.6640625" style="5" customWidth="1"/>
-    <col min="9505" max="9508" width="3.58203125" style="5" customWidth="1"/>
-    <col min="9509" max="9728" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9760" width="3.6640625" style="5" customWidth="1"/>
-    <col min="9761" max="9764" width="3.58203125" style="5" customWidth="1"/>
-    <col min="9765" max="9984" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9985" max="10016" width="3.6640625" style="5" customWidth="1"/>
-    <col min="10017" max="10020" width="3.58203125" style="5" customWidth="1"/>
-    <col min="10021" max="10240" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10272" width="3.6640625" style="5" customWidth="1"/>
-    <col min="10273" max="10276" width="3.58203125" style="5" customWidth="1"/>
-    <col min="10277" max="10496" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10528" width="3.6640625" style="5" customWidth="1"/>
-    <col min="10529" max="10532" width="3.58203125" style="5" customWidth="1"/>
-    <col min="10533" max="10752" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10784" width="3.6640625" style="5" customWidth="1"/>
-    <col min="10785" max="10788" width="3.58203125" style="5" customWidth="1"/>
-    <col min="10789" max="11008" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11040" width="3.6640625" style="5" customWidth="1"/>
-    <col min="11041" max="11044" width="3.58203125" style="5" customWidth="1"/>
-    <col min="11045" max="11264" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11296" width="3.6640625" style="5" customWidth="1"/>
-    <col min="11297" max="11300" width="3.58203125" style="5" customWidth="1"/>
-    <col min="11301" max="11520" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11552" width="3.6640625" style="5" customWidth="1"/>
-    <col min="11553" max="11556" width="3.58203125" style="5" customWidth="1"/>
-    <col min="11557" max="11776" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11808" width="3.6640625" style="5" customWidth="1"/>
-    <col min="11809" max="11812" width="3.58203125" style="5" customWidth="1"/>
-    <col min="11813" max="12032" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12064" width="3.6640625" style="5" customWidth="1"/>
-    <col min="12065" max="12068" width="3.58203125" style="5" customWidth="1"/>
-    <col min="12069" max="12288" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12320" width="3.6640625" style="5" customWidth="1"/>
-    <col min="12321" max="12324" width="3.58203125" style="5" customWidth="1"/>
-    <col min="12325" max="12544" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12576" width="3.6640625" style="5" customWidth="1"/>
-    <col min="12577" max="12580" width="3.58203125" style="5" customWidth="1"/>
-    <col min="12581" max="12800" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12832" width="3.6640625" style="5" customWidth="1"/>
-    <col min="12833" max="12836" width="3.58203125" style="5" customWidth="1"/>
-    <col min="12837" max="13056" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13088" width="3.6640625" style="5" customWidth="1"/>
-    <col min="13089" max="13092" width="3.58203125" style="5" customWidth="1"/>
-    <col min="13093" max="13312" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13344" width="3.6640625" style="5" customWidth="1"/>
-    <col min="13345" max="13348" width="3.58203125" style="5" customWidth="1"/>
-    <col min="13349" max="13568" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13600" width="3.6640625" style="5" customWidth="1"/>
-    <col min="13601" max="13604" width="3.58203125" style="5" customWidth="1"/>
-    <col min="13605" max="13824" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13856" width="3.6640625" style="5" customWidth="1"/>
-    <col min="13857" max="13860" width="3.58203125" style="5" customWidth="1"/>
-    <col min="13861" max="14080" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14112" width="3.6640625" style="5" customWidth="1"/>
-    <col min="14113" max="14116" width="3.58203125" style="5" customWidth="1"/>
-    <col min="14117" max="14336" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14368" width="3.6640625" style="5" customWidth="1"/>
-    <col min="14369" max="14372" width="3.58203125" style="5" customWidth="1"/>
-    <col min="14373" max="14592" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14624" width="3.6640625" style="5" customWidth="1"/>
-    <col min="14625" max="14628" width="3.58203125" style="5" customWidth="1"/>
-    <col min="14629" max="14848" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14880" width="3.6640625" style="5" customWidth="1"/>
-    <col min="14881" max="14884" width="3.58203125" style="5" customWidth="1"/>
-    <col min="14885" max="15104" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15136" width="3.6640625" style="5" customWidth="1"/>
-    <col min="15137" max="15140" width="3.58203125" style="5" customWidth="1"/>
-    <col min="15141" max="15360" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15392" width="3.6640625" style="5" customWidth="1"/>
-    <col min="15393" max="15396" width="3.58203125" style="5" customWidth="1"/>
-    <col min="15397" max="15616" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15648" width="3.6640625" style="5" customWidth="1"/>
-    <col min="15649" max="15652" width="3.58203125" style="5" customWidth="1"/>
-    <col min="15653" max="15872" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15904" width="3.6640625" style="5" customWidth="1"/>
-    <col min="15905" max="15908" width="3.58203125" style="5" customWidth="1"/>
-    <col min="15909" max="16128" width="8.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16160" width="3.6640625" style="5" customWidth="1"/>
-    <col min="16161" max="16164" width="3.58203125" style="5" customWidth="1"/>
-    <col min="16165" max="16384" width="8.6640625" style="5"/>
+    <col min="1" max="4" width="3.69921875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="3.69921875" style="8" customWidth="1"/>
+    <col min="7" max="32" width="3.69921875" style="5" customWidth="1"/>
+    <col min="33" max="36" width="3.59765625" style="5" customWidth="1"/>
+    <col min="37" max="256" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="257" max="288" width="3.69921875" style="5" customWidth="1"/>
+    <col min="289" max="292" width="3.59765625" style="5" customWidth="1"/>
+    <col min="293" max="512" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="513" max="544" width="3.69921875" style="5" customWidth="1"/>
+    <col min="545" max="548" width="3.59765625" style="5" customWidth="1"/>
+    <col min="549" max="768" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="769" max="800" width="3.69921875" style="5" customWidth="1"/>
+    <col min="801" max="804" width="3.59765625" style="5" customWidth="1"/>
+    <col min="805" max="1024" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1056" width="3.69921875" style="5" customWidth="1"/>
+    <col min="1057" max="1060" width="3.59765625" style="5" customWidth="1"/>
+    <col min="1061" max="1280" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1312" width="3.69921875" style="5" customWidth="1"/>
+    <col min="1313" max="1316" width="3.59765625" style="5" customWidth="1"/>
+    <col min="1317" max="1536" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1568" width="3.69921875" style="5" customWidth="1"/>
+    <col min="1569" max="1572" width="3.59765625" style="5" customWidth="1"/>
+    <col min="1573" max="1792" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1824" width="3.69921875" style="5" customWidth="1"/>
+    <col min="1825" max="1828" width="3.59765625" style="5" customWidth="1"/>
+    <col min="1829" max="2048" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2080" width="3.69921875" style="5" customWidth="1"/>
+    <col min="2081" max="2084" width="3.59765625" style="5" customWidth="1"/>
+    <col min="2085" max="2304" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2336" width="3.69921875" style="5" customWidth="1"/>
+    <col min="2337" max="2340" width="3.59765625" style="5" customWidth="1"/>
+    <col min="2341" max="2560" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2592" width="3.69921875" style="5" customWidth="1"/>
+    <col min="2593" max="2596" width="3.59765625" style="5" customWidth="1"/>
+    <col min="2597" max="2816" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2848" width="3.69921875" style="5" customWidth="1"/>
+    <col min="2849" max="2852" width="3.59765625" style="5" customWidth="1"/>
+    <col min="2853" max="3072" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3104" width="3.69921875" style="5" customWidth="1"/>
+    <col min="3105" max="3108" width="3.59765625" style="5" customWidth="1"/>
+    <col min="3109" max="3328" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3360" width="3.69921875" style="5" customWidth="1"/>
+    <col min="3361" max="3364" width="3.59765625" style="5" customWidth="1"/>
+    <col min="3365" max="3584" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3616" width="3.69921875" style="5" customWidth="1"/>
+    <col min="3617" max="3620" width="3.59765625" style="5" customWidth="1"/>
+    <col min="3621" max="3840" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3872" width="3.69921875" style="5" customWidth="1"/>
+    <col min="3873" max="3876" width="3.59765625" style="5" customWidth="1"/>
+    <col min="3877" max="4096" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4128" width="3.69921875" style="5" customWidth="1"/>
+    <col min="4129" max="4132" width="3.59765625" style="5" customWidth="1"/>
+    <col min="4133" max="4352" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4384" width="3.69921875" style="5" customWidth="1"/>
+    <col min="4385" max="4388" width="3.59765625" style="5" customWidth="1"/>
+    <col min="4389" max="4608" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4640" width="3.69921875" style="5" customWidth="1"/>
+    <col min="4641" max="4644" width="3.59765625" style="5" customWidth="1"/>
+    <col min="4645" max="4864" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4896" width="3.69921875" style="5" customWidth="1"/>
+    <col min="4897" max="4900" width="3.59765625" style="5" customWidth="1"/>
+    <col min="4901" max="5120" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5152" width="3.69921875" style="5" customWidth="1"/>
+    <col min="5153" max="5156" width="3.59765625" style="5" customWidth="1"/>
+    <col min="5157" max="5376" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5408" width="3.69921875" style="5" customWidth="1"/>
+    <col min="5409" max="5412" width="3.59765625" style="5" customWidth="1"/>
+    <col min="5413" max="5632" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5664" width="3.69921875" style="5" customWidth="1"/>
+    <col min="5665" max="5668" width="3.59765625" style="5" customWidth="1"/>
+    <col min="5669" max="5888" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5920" width="3.69921875" style="5" customWidth="1"/>
+    <col min="5921" max="5924" width="3.59765625" style="5" customWidth="1"/>
+    <col min="5925" max="6144" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6176" width="3.69921875" style="5" customWidth="1"/>
+    <col min="6177" max="6180" width="3.59765625" style="5" customWidth="1"/>
+    <col min="6181" max="6400" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6432" width="3.69921875" style="5" customWidth="1"/>
+    <col min="6433" max="6436" width="3.59765625" style="5" customWidth="1"/>
+    <col min="6437" max="6656" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6688" width="3.69921875" style="5" customWidth="1"/>
+    <col min="6689" max="6692" width="3.59765625" style="5" customWidth="1"/>
+    <col min="6693" max="6912" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6944" width="3.69921875" style="5" customWidth="1"/>
+    <col min="6945" max="6948" width="3.59765625" style="5" customWidth="1"/>
+    <col min="6949" max="7168" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7200" width="3.69921875" style="5" customWidth="1"/>
+    <col min="7201" max="7204" width="3.59765625" style="5" customWidth="1"/>
+    <col min="7205" max="7424" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7456" width="3.69921875" style="5" customWidth="1"/>
+    <col min="7457" max="7460" width="3.59765625" style="5" customWidth="1"/>
+    <col min="7461" max="7680" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7712" width="3.69921875" style="5" customWidth="1"/>
+    <col min="7713" max="7716" width="3.59765625" style="5" customWidth="1"/>
+    <col min="7717" max="7936" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7968" width="3.69921875" style="5" customWidth="1"/>
+    <col min="7969" max="7972" width="3.59765625" style="5" customWidth="1"/>
+    <col min="7973" max="8192" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8224" width="3.69921875" style="5" customWidth="1"/>
+    <col min="8225" max="8228" width="3.59765625" style="5" customWidth="1"/>
+    <col min="8229" max="8448" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8480" width="3.69921875" style="5" customWidth="1"/>
+    <col min="8481" max="8484" width="3.59765625" style="5" customWidth="1"/>
+    <col min="8485" max="8704" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8736" width="3.69921875" style="5" customWidth="1"/>
+    <col min="8737" max="8740" width="3.59765625" style="5" customWidth="1"/>
+    <col min="8741" max="8960" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8992" width="3.69921875" style="5" customWidth="1"/>
+    <col min="8993" max="8996" width="3.59765625" style="5" customWidth="1"/>
+    <col min="8997" max="9216" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9248" width="3.69921875" style="5" customWidth="1"/>
+    <col min="9249" max="9252" width="3.59765625" style="5" customWidth="1"/>
+    <col min="9253" max="9472" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9504" width="3.69921875" style="5" customWidth="1"/>
+    <col min="9505" max="9508" width="3.59765625" style="5" customWidth="1"/>
+    <col min="9509" max="9728" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9760" width="3.69921875" style="5" customWidth="1"/>
+    <col min="9761" max="9764" width="3.59765625" style="5" customWidth="1"/>
+    <col min="9765" max="9984" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9985" max="10016" width="3.69921875" style="5" customWidth="1"/>
+    <col min="10017" max="10020" width="3.59765625" style="5" customWidth="1"/>
+    <col min="10021" max="10240" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10272" width="3.69921875" style="5" customWidth="1"/>
+    <col min="10273" max="10276" width="3.59765625" style="5" customWidth="1"/>
+    <col min="10277" max="10496" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10528" width="3.69921875" style="5" customWidth="1"/>
+    <col min="10529" max="10532" width="3.59765625" style="5" customWidth="1"/>
+    <col min="10533" max="10752" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10784" width="3.69921875" style="5" customWidth="1"/>
+    <col min="10785" max="10788" width="3.59765625" style="5" customWidth="1"/>
+    <col min="10789" max="11008" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11040" width="3.69921875" style="5" customWidth="1"/>
+    <col min="11041" max="11044" width="3.59765625" style="5" customWidth="1"/>
+    <col min="11045" max="11264" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11296" width="3.69921875" style="5" customWidth="1"/>
+    <col min="11297" max="11300" width="3.59765625" style="5" customWidth="1"/>
+    <col min="11301" max="11520" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11552" width="3.69921875" style="5" customWidth="1"/>
+    <col min="11553" max="11556" width="3.59765625" style="5" customWidth="1"/>
+    <col min="11557" max="11776" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11808" width="3.69921875" style="5" customWidth="1"/>
+    <col min="11809" max="11812" width="3.59765625" style="5" customWidth="1"/>
+    <col min="11813" max="12032" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12064" width="3.69921875" style="5" customWidth="1"/>
+    <col min="12065" max="12068" width="3.59765625" style="5" customWidth="1"/>
+    <col min="12069" max="12288" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12320" width="3.69921875" style="5" customWidth="1"/>
+    <col min="12321" max="12324" width="3.59765625" style="5" customWidth="1"/>
+    <col min="12325" max="12544" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12576" width="3.69921875" style="5" customWidth="1"/>
+    <col min="12577" max="12580" width="3.59765625" style="5" customWidth="1"/>
+    <col min="12581" max="12800" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12832" width="3.69921875" style="5" customWidth="1"/>
+    <col min="12833" max="12836" width="3.59765625" style="5" customWidth="1"/>
+    <col min="12837" max="13056" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13088" width="3.69921875" style="5" customWidth="1"/>
+    <col min="13089" max="13092" width="3.59765625" style="5" customWidth="1"/>
+    <col min="13093" max="13312" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13344" width="3.69921875" style="5" customWidth="1"/>
+    <col min="13345" max="13348" width="3.59765625" style="5" customWidth="1"/>
+    <col min="13349" max="13568" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13600" width="3.69921875" style="5" customWidth="1"/>
+    <col min="13601" max="13604" width="3.59765625" style="5" customWidth="1"/>
+    <col min="13605" max="13824" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13856" width="3.69921875" style="5" customWidth="1"/>
+    <col min="13857" max="13860" width="3.59765625" style="5" customWidth="1"/>
+    <col min="13861" max="14080" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14112" width="3.69921875" style="5" customWidth="1"/>
+    <col min="14113" max="14116" width="3.59765625" style="5" customWidth="1"/>
+    <col min="14117" max="14336" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14368" width="3.69921875" style="5" customWidth="1"/>
+    <col min="14369" max="14372" width="3.59765625" style="5" customWidth="1"/>
+    <col min="14373" max="14592" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14624" width="3.69921875" style="5" customWidth="1"/>
+    <col min="14625" max="14628" width="3.59765625" style="5" customWidth="1"/>
+    <col min="14629" max="14848" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14880" width="3.69921875" style="5" customWidth="1"/>
+    <col min="14881" max="14884" width="3.59765625" style="5" customWidth="1"/>
+    <col min="14885" max="15104" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15136" width="3.69921875" style="5" customWidth="1"/>
+    <col min="15137" max="15140" width="3.59765625" style="5" customWidth="1"/>
+    <col min="15141" max="15360" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15392" width="3.69921875" style="5" customWidth="1"/>
+    <col min="15393" max="15396" width="3.59765625" style="5" customWidth="1"/>
+    <col min="15397" max="15616" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15648" width="3.69921875" style="5" customWidth="1"/>
+    <col min="15649" max="15652" width="3.59765625" style="5" customWidth="1"/>
+    <col min="15653" max="15872" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15904" width="3.69921875" style="5" customWidth="1"/>
+    <col min="15905" max="15908" width="3.59765625" style="5" customWidth="1"/>
+    <col min="15909" max="16128" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16160" width="3.69921875" style="5" customWidth="1"/>
+    <col min="16161" max="16164" width="3.59765625" style="5" customWidth="1"/>
+    <col min="16165" max="16384" width="8.69921875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:176" ht="15.75" customHeight="1">
@@ -5722,7 +6398,7 @@
       <c r="FS2" s="14"/>
       <c r="FT2" s="14"/>
     </row>
-    <row r="3" spans="1:176" ht="14">
+    <row r="3" spans="1:176" ht="14.4">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -5745,21 +6421,21 @@
       <c r="U3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="30"/>
-      <c r="W3" s="46">
+      <c r="V3" s="29"/>
+      <c r="W3" s="30">
         <v>45048</v>
       </c>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="30"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="29"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:176" ht="19">
+    <row r="4" spans="1:176" ht="19.2">
       <c r="A4" s="13"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -5793,7 +6469,7 @@
       <c r="AE4" s="15"/>
       <c r="AF4" s="13"/>
     </row>
-    <row r="5" spans="1:176" ht="19">
+    <row r="5" spans="1:176" ht="19.2">
       <c r="A5" s="13"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -5827,7 +6503,7 @@
       <c r="AE5" s="15"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:176" ht="14">
+    <row r="6" spans="1:176" ht="14.4">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -5860,7 +6536,7 @@
       <c r="AE6" s="13"/>
       <c r="AF6" s="13"/>
     </row>
-    <row r="7" spans="1:176" ht="14">
+    <row r="7" spans="1:176" ht="14.4">
       <c r="A7" s="13"/>
       <c r="B7" s="17" t="s">
         <v>3</v>
@@ -5868,20 +6544,20 @@
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="19"/>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="49"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="34"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
@@ -5897,88 +6573,88 @@
       <c r="AD7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:176" ht="14">
+    <row r="8" spans="1:176" ht="14.4">
       <c r="A8" s="13"/>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="56" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="58"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="43"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
-      <c r="W8" s="62" t="s">
+      <c r="W8" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62" t="s">
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62" t="s">
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="62"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47"/>
       <c r="AF8" s="13"/>
     </row>
     <row r="9" spans="1:176" ht="12">
       <c r="A9" s="13"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="61"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="46"/>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
-      <c r="W9" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="43" t="s">
+      <c r="W9" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="45"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="50"/>
       <c r="AF9" s="13"/>
     </row>
     <row r="10" spans="1:176" ht="12">
@@ -6004,15 +6680,15 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
-      <c r="W10" s="63"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="63"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="63"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="65"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="53"/>
       <c r="AF10" s="13"/>
     </row>
     <row r="11" spans="1:176" ht="12">
@@ -6038,15 +6714,15 @@
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
-      <c r="W11" s="63"/>
-      <c r="X11" s="64"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="63"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="63"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="65"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="53"/>
       <c r="AF11" s="13"/>
     </row>
     <row r="12" spans="1:176" ht="12">
@@ -6072,15 +6748,15 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="67"/>
-      <c r="AE12" s="68"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="54"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="54"/>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="56"/>
       <c r="AF12" s="13"/>
     </row>
     <row r="13" spans="1:176" ht="12">
@@ -6175,106 +6851,106 @@
     </row>
     <row r="16" spans="1:176" ht="12">
       <c r="A16" s="13"/>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="42"/>
-      <c r="AE16" s="42"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
       <c r="AF16" s="13"/>
     </row>
     <row r="17" spans="1:32" ht="12">
       <c r="A17" s="13"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="42"/>
-      <c r="AE17" s="42"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
       <c r="AF17" s="13"/>
     </row>
     <row r="18" spans="1:32" ht="12">
       <c r="A18" s="13"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="42"/>
-      <c r="AD18" s="42"/>
-      <c r="AE18" s="42"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
       <c r="AF18" s="13"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -6343,7 +7019,7 @@
       <c r="AE20" s="13"/>
       <c r="AF20" s="13"/>
     </row>
-    <row r="21" spans="1:32" s="7" customFormat="1" ht="14">
+    <row r="21" spans="1:32" s="7" customFormat="1" ht="14.4">
       <c r="A21" s="21"/>
       <c r="B21" s="22" t="s">
         <v>11</v>
@@ -6378,7 +7054,7 @@
       <c r="AE21" s="21"/>
       <c r="AF21" s="21"/>
     </row>
-    <row r="22" spans="1:32" s="7" customFormat="1" ht="14">
+    <row r="22" spans="1:32" s="7" customFormat="1" ht="14.4">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -6416,41 +7092,41 @@
       <c r="B23" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="29"/>
       <c r="J23" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="43" t="s">
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="45"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="50"/>
       <c r="AF23" s="21"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
@@ -6458,614 +7134,614 @@
       <c r="B24" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31">
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="58">
         <v>45048</v>
       </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="60"/>
       <c r="J24" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="38" t="s">
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="38"/>
+      <c r="AD24" s="61"/>
+      <c r="AE24" s="61"/>
       <c r="AF24" s="13"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="13"/>
       <c r="B25" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="36">
+        <v>131</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="62">
         <v>45048</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="39"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
       <c r="J25" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="38" t="s">
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AD25" s="38"/>
-      <c r="AE25" s="38"/>
+      <c r="AD25" s="61"/>
+      <c r="AE25" s="61"/>
       <c r="AF25" s="13"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="13"/>
       <c r="B26" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="36">
+        <v>132</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="62">
         <v>45048</v>
       </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="34" t="s">
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="38" t="s">
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="65"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AD26" s="38"/>
-      <c r="AE26" s="38"/>
+      <c r="AD26" s="61"/>
+      <c r="AE26" s="61"/>
       <c r="AF26" s="13"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="13"/>
       <c r="B27" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="36">
+        <v>133</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="62">
         <v>45048</v>
       </c>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40" t="s">
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="38" t="s">
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="67"/>
+      <c r="Z27" s="67"/>
+      <c r="AA27" s="67"/>
+      <c r="AB27" s="67"/>
+      <c r="AC27" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="AD27" s="38"/>
-      <c r="AE27" s="38"/>
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="61"/>
       <c r="AF27" s="13"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31">
+        <v>134</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="58">
         <v>45048</v>
       </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="60"/>
       <c r="J28" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="34" t="s">
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="AD28" s="34"/>
-      <c r="AE28" s="34"/>
+      <c r="AD28" s="65"/>
+      <c r="AE28" s="65"/>
       <c r="AF28" s="13"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="13"/>
       <c r="B29" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31">
+        <v>135</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="58">
         <v>45048</v>
       </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="60"/>
       <c r="J29" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="34" t="s">
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="AD29" s="34"/>
-      <c r="AE29" s="34"/>
+      <c r="AD29" s="65"/>
+      <c r="AE29" s="65"/>
       <c r="AF29" s="13"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="13"/>
       <c r="B30" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31">
+        <v>136</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="58">
         <v>45048</v>
       </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="60"/>
       <c r="J30" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="35" t="s">
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="AD30" s="35"/>
-      <c r="AE30" s="35"/>
+      <c r="AD30" s="68"/>
+      <c r="AE30" s="68"/>
       <c r="AF30" s="13"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="13"/>
       <c r="B31" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31">
+        <v>137</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="58">
         <v>45055</v>
       </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="33"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="60"/>
       <c r="J31" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="29"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="34" t="s">
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="AD31" s="34"/>
-      <c r="AE31" s="34"/>
+      <c r="AD31" s="65"/>
+      <c r="AE31" s="65"/>
       <c r="AF31" s="13"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="13"/>
       <c r="B32" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31">
+        <v>138</v>
+      </c>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="58">
         <v>45056</v>
       </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="60"/>
       <c r="J32" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="29"/>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="34" t="s">
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="31"/>
+      <c r="AC32" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="AD32" s="34"/>
-      <c r="AE32" s="34"/>
+      <c r="AD32" s="65"/>
+      <c r="AE32" s="65"/>
       <c r="AF32" s="13"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31">
+        <v>139</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="58">
         <v>45070</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="33"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="60"/>
       <c r="J33" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="29"/>
-      <c r="AA33" s="29"/>
-      <c r="AB33" s="29"/>
-      <c r="AC33" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="31"/>
+      <c r="AC33" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="AD33" s="35"/>
-      <c r="AE33" s="35"/>
+      <c r="AD33" s="68"/>
+      <c r="AE33" s="68"/>
       <c r="AF33" s="13"/>
     </row>
     <row r="34" spans="1:32" ht="29.25" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="33"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="60"/>
       <c r="J34" s="28"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="29"/>
-      <c r="AB34" s="29"/>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="34"/>
-      <c r="AE34" s="34"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="65"/>
+      <c r="AD34" s="65"/>
+      <c r="AE34" s="65"/>
       <c r="AF34" s="13"/>
     </row>
     <row r="35" spans="1:32" ht="29.25" customHeight="1">
       <c r="B35" s="28"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="33"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="60"/>
       <c r="J35" s="28"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="29"/>
-      <c r="AA35" s="29"/>
-      <c r="AB35" s="29"/>
-      <c r="AC35" s="35"/>
-      <c r="AD35" s="35"/>
-      <c r="AE35" s="35"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="31"/>
+      <c r="AC35" s="68"/>
+      <c r="AD35" s="68"/>
+      <c r="AE35" s="68"/>
     </row>
     <row r="36" spans="1:32" ht="29.25" customHeight="1">
       <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="33"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60"/>
       <c r="J36" s="28"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="29"/>
-      <c r="AA36" s="29"/>
-      <c r="AB36" s="29"/>
-      <c r="AC36" s="35"/>
-      <c r="AD36" s="35"/>
-      <c r="AE36" s="35"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="31"/>
+      <c r="AB36" s="31"/>
+      <c r="AC36" s="68"/>
+      <c r="AD36" s="68"/>
+      <c r="AE36" s="68"/>
     </row>
     <row r="37" spans="1:32" ht="29.25" customHeight="1">
       <c r="B37" s="28"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="33"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="60"/>
       <c r="J37" s="28"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="29"/>
-      <c r="AB37" s="29"/>
-      <c r="AC37" s="34"/>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="34"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="31"/>
+      <c r="AC37" s="65"/>
+      <c r="AD37" s="65"/>
+      <c r="AE37" s="65"/>
     </row>
     <row r="38" spans="1:32" ht="29.25" customHeight="1">
       <c r="B38" s="28"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="33"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="60"/>
       <c r="J38" s="28"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="29"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="34"/>
-      <c r="AD38" s="34"/>
-      <c r="AE38" s="34"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="65"/>
+      <c r="AD38" s="65"/>
+      <c r="AE38" s="65"/>
     </row>
     <row r="39" spans="1:32" ht="29.25" customHeight="1">
       <c r="B39" s="28"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="33"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="60"/>
       <c r="J39" s="28"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="29"/>
-      <c r="AB39" s="29"/>
-      <c r="AC39" s="34"/>
-      <c r="AD39" s="34"/>
-      <c r="AE39" s="34"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="31"/>
+      <c r="AB39" s="31"/>
+      <c r="AC39" s="65"/>
+      <c r="AD39" s="65"/>
+      <c r="AE39" s="65"/>
     </row>
     <row r="40" spans="1:32" ht="29.25" customHeight="1"/>
     <row r="41" spans="1:32" ht="29.25" customHeight="1"/>
@@ -7083,6 +7759,75 @@
     <row r="53" ht="29.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:AE3"/>
     <mergeCell ref="F7:Q7"/>
@@ -7094,75 +7839,6 @@
     <mergeCell ref="W9:Y12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="AC9:AE12"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:AB39"/>
-    <mergeCell ref="AC39:AE39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -7178,25 +7854,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27994068-699A-423E-A1AD-60ED94307E60}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.9140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="70" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -7237,43 +7913,51 @@
         <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="71" customHeight="1">
+      <c r="G4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="70.95" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -7324,7 +8008,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -7335,7 +8019,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -7343,10 +8027,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -7469,20 +8153,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A12" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="7.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.9140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.58203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.69921875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7537,15 +8221,15 @@
         <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -7553,35 +8237,35 @@
         <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="252">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="270">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -7589,13 +8273,13 @@
         <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="144">
@@ -7603,36 +8287,36 @@
         <v>41</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="E18" s="4"/>
       <c r="H18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="E19" s="4"/>
       <c r="H19" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="E20" s="4"/>
       <c r="H20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="H21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -7640,7 +8324,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -7648,15 +8332,15 @@
         <v>39</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -7675,7 +8359,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2"/>
     </row>
@@ -7697,26 +8381,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9307775C-FDAD-4FEC-9AA1-F7A5249BC81A}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="7.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.9140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.69921875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="70" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -7751,7 +8435,7 @@
         <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="126">
@@ -7759,21 +8443,21 @@
         <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -7781,13 +8465,13 @@
         <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="144">
@@ -7795,13 +8479,13 @@
         <v>41</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -7809,7 +8493,7 @@
         <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7820,7 +8504,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2"/>
     </row>
@@ -7841,25 +8525,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFC7A4E-D38F-4AD1-9F58-E06FF44A170C}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.9140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -7900,14 +8584,14 @@
         <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -7918,14 +8602,14 @@
         <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -7933,10 +8617,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -7990,32 +8674,32 @@
         <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="144">
+    <row r="12" spans="1:8" ht="126">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -8023,10 +8707,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -8063,14 +8747,14 @@
         <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="90">
@@ -8081,14 +8765,14 @@
         <v>41</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -8112,8 +8796,12 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="4"/>
@@ -8122,8 +8810,10 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -8132,8 +8822,10 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -8239,25 +8931,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1476D7B-9FE2-4CCC-A5FC-D0B9BE2EF443}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.9140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.4140625" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.3984375" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="70" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -8298,14 +8990,14 @@
         <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -8316,14 +9008,14 @@
         <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -8331,10 +9023,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -8388,32 +9080,32 @@
         <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="162">
+    <row r="12" spans="1:8" ht="126">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -8421,10 +9113,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -8461,17 +9153,17 @@
         <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="98" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="97.95" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -8479,19 +9171,23 @@
         <v>41</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="4"/>
@@ -8500,8 +9196,10 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="4"/>
@@ -8510,36 +9208,34 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="4"/>
       <c r="F20" s="1"/>
       <c r="G20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="43.25" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="43.2" customHeight="1">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="71" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H21" s="72" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="43.25" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="43.2" customHeight="1">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -8647,23 +9343,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E092427-6842-4445-A08A-D1A82D22F7F8}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.9140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.69921875" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="70" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -8704,43 +9400,51 @@
         <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="G4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="90">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -8794,43 +9498,51 @@
         <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="36">
+      <c r="G11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="90">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -8864,7 +9576,7 @@
         <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -8878,7 +9590,7 @@
         <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -8889,7 +9601,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
@@ -9027,19 +9739,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.9140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="70" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -9080,14 +9792,14 @@
         <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -9098,14 +9810,14 @@
         <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -9113,10 +9825,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -9185,7 +9897,7 @@
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="4"/>
@@ -9195,10 +9907,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>44</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -9350,27 +10062,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99AFFE4-A775-4CD0-A6FA-1D1EB0894E48}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.9140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="70" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -9411,14 +10123,14 @@
         <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>103</v>
+      <c r="E4" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -9429,14 +10141,14 @@
         <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -9444,10 +10156,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -9467,28 +10179,56 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="G8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="144">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -9497,12 +10237,6 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -9510,33 +10244,43 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="162">
+      <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -9564,25 +10308,39 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="G17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="54">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="4"/>
@@ -9590,13 +10348,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="36">
-      <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>133</v>
-      </c>
+    <row r="20" spans="1:8">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="4"/>
@@ -9605,12 +10357,6 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -9619,8 +10365,12 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -9629,8 +10379,10 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="1"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -9639,8 +10391,10 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -9659,48 +10413,24 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="162">
-      <c r="A27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>134</v>
-      </c>
+    <row r="27" spans="1:8">
+      <c r="A27" s="73"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A28" s="73"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -9727,54 +10457,6 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="D31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="54">
-      <c r="D32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9793,25 +10475,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154C489F-8E9A-47AE-8705-23A06B876C20}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="D12" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.9140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="70" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -9852,43 +10534,51 @@
         <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="G4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="144">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="23" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -9942,14 +10632,14 @@
         <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -9960,14 +10650,14 @@
         <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -9975,10 +10665,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -10015,14 +10705,14 @@
         <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="108">
@@ -10033,14 +10723,14 @@
         <v>41</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -10088,7 +10778,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -10111,7 +10801,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
@@ -10195,15 +10885,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006CA8BB7AF5A5B141B60E23C89B396D11" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="62746eb1d78ebc3451d4db4eb7c635bd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8a424a7-50d7-4cd5-819d-65031445e48f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="38d8a6a4b62d5c94138e82bba83eb1ac" ns2:_="">
     <xsd:import namespace="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
@@ -10375,6 +11056,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -10386,14 +11076,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120F1888-39C5-479E-B2C4-E2B421ACFC0E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C17B0A5D-5177-4FB0-880C-EB3DAEA577DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10407,6 +11089,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120F1888-39C5-479E-B2C4-E2B421ACFC0E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/03_DB設計書/サーバサイド設計.xlsx
+++ b/03_DB設計書/サーバサイド設計.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D459C85D-0C79-4B3E-9320-CCDB818A27DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8BD25F-3E58-4142-9848-FA2132480267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="165">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -1554,6 +1554,40 @@
   </si>
   <si>
     <t>threads_title（R）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ver2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード変更処理</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール修正処理</t>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバサイド設計　修正</t>
+    <rPh sb="6" eb="8">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1905,7 +1939,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1973,13 +2007,58 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2030,15 +2109,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2057,42 +2127,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2103,12 +2137,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6421,18 +6449,18 @@
       <c r="U3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="29"/>
-      <c r="W3" s="30">
+      <c r="V3" s="30"/>
+      <c r="W3" s="46">
         <v>45048</v>
       </c>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="30"/>
       <c r="AF3" s="13"/>
     </row>
     <row r="4" spans="1:176" ht="19.2">
@@ -6544,20 +6572,20 @@
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="19"/>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="34"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="49"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
@@ -6575,86 +6603,86 @@
     </row>
     <row r="8" spans="1:176" ht="14.4">
       <c r="A8" s="13"/>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="41" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="43"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="58"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
-      <c r="W8" s="47" t="s">
+      <c r="W8" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47" t="s">
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47" t="s">
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="62"/>
       <c r="AF8" s="13"/>
     </row>
     <row r="9" spans="1:176" ht="12">
       <c r="A9" s="13"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="46"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="61"/>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
-      <c r="W9" s="48" t="s">
+      <c r="W9" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="48" t="s">
+      <c r="X9" s="44"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="48" t="s">
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="50"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="45"/>
       <c r="AF9" s="13"/>
     </row>
     <row r="10" spans="1:176" ht="12">
@@ -6680,15 +6708,15 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="53"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="65"/>
       <c r="AF10" s="13"/>
     </row>
     <row r="11" spans="1:176" ht="12">
@@ -6714,15 +6742,15 @@
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="51"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="53"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="65"/>
       <c r="AF11" s="13"/>
     </row>
     <row r="12" spans="1:176" ht="12">
@@ -6748,15 +6776,15 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="56"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="67"/>
+      <c r="AE12" s="68"/>
       <c r="AF12" s="13"/>
     </row>
     <row r="13" spans="1:176" ht="12">
@@ -6851,106 +6879,106 @@
     </row>
     <row r="16" spans="1:176" ht="12">
       <c r="A16" s="13"/>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="42"/>
       <c r="AF16" s="13"/>
     </row>
     <row r="17" spans="1:32" ht="12">
       <c r="A17" s="13"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="57"/>
-      <c r="AB17" s="57"/>
-      <c r="AC17" s="57"/>
-      <c r="AD17" s="57"/>
-      <c r="AE17" s="57"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="42"/>
       <c r="AF17" s="13"/>
     </row>
     <row r="18" spans="1:32" ht="12">
       <c r="A18" s="13"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="57"/>
-      <c r="AC18" s="57"/>
-      <c r="AD18" s="57"/>
-      <c r="AE18" s="57"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="42"/>
       <c r="AF18" s="13"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -7092,41 +7120,41 @@
       <c r="B23" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
       <c r="J23" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="48" t="s">
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="49"/>
-      <c r="AE23" s="50"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="45"/>
       <c r="AF23" s="21"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
@@ -7134,41 +7162,41 @@
       <c r="B24" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="58">
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31">
         <v>45048</v>
       </c>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="60"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="33"/>
       <c r="J24" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="61" t="s">
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="AD24" s="61"/>
-      <c r="AE24" s="61"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
       <c r="AF24" s="13"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
@@ -7176,41 +7204,41 @@
       <c r="B25" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="62">
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="36">
         <v>45048</v>
       </c>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="64"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="39"/>
       <c r="J25" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="61" t="s">
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="AD25" s="61"/>
-      <c r="AE25" s="61"/>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="38"/>
       <c r="AF25" s="13"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
@@ -7218,41 +7246,41 @@
       <c r="B26" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="62">
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="36">
         <v>45048</v>
       </c>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="65" t="s">
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="65"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="65"/>
-      <c r="Y26" s="65"/>
-      <c r="Z26" s="65"/>
-      <c r="AA26" s="65"/>
-      <c r="AB26" s="65"/>
-      <c r="AC26" s="61" t="s">
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="AD26" s="61"/>
-      <c r="AE26" s="61"/>
+      <c r="AD26" s="38"/>
+      <c r="AE26" s="38"/>
       <c r="AF26" s="13"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
@@ -7260,41 +7288,41 @@
       <c r="B27" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="62">
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="36">
         <v>45048</v>
       </c>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="66" t="s">
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="67"/>
-      <c r="AA27" s="67"/>
-      <c r="AB27" s="67"/>
-      <c r="AC27" s="61" t="s">
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="AD27" s="61"/>
-      <c r="AE27" s="61"/>
+      <c r="AD27" s="38"/>
+      <c r="AE27" s="38"/>
       <c r="AF27" s="13"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
@@ -7302,41 +7330,41 @@
       <c r="B28" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="58">
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31">
         <v>45048</v>
       </c>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="60"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="33"/>
       <c r="J28" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="65" t="s">
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="AD28" s="65"/>
-      <c r="AE28" s="65"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
       <c r="AF28" s="13"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
@@ -7344,41 +7372,41 @@
       <c r="B29" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="58">
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="31">
         <v>45048</v>
       </c>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="60"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="33"/>
       <c r="J29" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="65" t="s">
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="AD29" s="65"/>
-      <c r="AE29" s="65"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
       <c r="AF29" s="13"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
@@ -7386,41 +7414,41 @@
       <c r="B30" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="58">
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31">
         <v>45048</v>
       </c>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="60"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="33"/>
       <c r="J30" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="68" t="s">
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="AD30" s="68"/>
-      <c r="AE30" s="68"/>
+      <c r="AD30" s="35"/>
+      <c r="AE30" s="35"/>
       <c r="AF30" s="13"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
@@ -7428,41 +7456,41 @@
       <c r="B31" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="58">
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="31">
         <v>45055</v>
       </c>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="60"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="33"/>
       <c r="J31" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="65" t="s">
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AD31" s="65"/>
-      <c r="AE31" s="65"/>
+      <c r="AD31" s="34"/>
+      <c r="AE31" s="34"/>
       <c r="AF31" s="13"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
@@ -7470,41 +7498,41 @@
       <c r="B32" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="58">
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31">
         <v>45056</v>
       </c>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="60"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="33"/>
       <c r="J32" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
-      <c r="AB32" s="31"/>
-      <c r="AC32" s="65" t="s">
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="AD32" s="65"/>
-      <c r="AE32" s="65"/>
+      <c r="AD32" s="34"/>
+      <c r="AE32" s="34"/>
       <c r="AF32" s="13"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
@@ -7512,236 +7540,244 @@
       <c r="B33" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="58">
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31">
         <v>45070</v>
       </c>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="60"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="33"/>
       <c r="J33" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="31"/>
-      <c r="AC33" s="68" t="s">
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="AD33" s="68"/>
-      <c r="AE33" s="68"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="35"/>
       <c r="AF33" s="13"/>
     </row>
     <row r="34" spans="1:32" ht="29.25" customHeight="1">
       <c r="A34" s="13"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="65"/>
-      <c r="AD34" s="65"/>
-      <c r="AE34" s="65"/>
+      <c r="B34" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="31">
+        <v>45090</v>
+      </c>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD34" s="34"/>
+      <c r="AE34" s="34"/>
       <c r="AF34" s="13"/>
     </row>
     <row r="35" spans="1:32" ht="29.25" customHeight="1">
       <c r="B35" s="28"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="60"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="33"/>
       <c r="J35" s="28"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="68"/>
-      <c r="AD35" s="68"/>
-      <c r="AE35" s="68"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="35"/>
     </row>
     <row r="36" spans="1:32" ht="29.25" customHeight="1">
       <c r="B36" s="28"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="60"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="33"/>
       <c r="J36" s="28"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="68"/>
-      <c r="AD36" s="68"/>
-      <c r="AE36" s="68"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="35"/>
     </row>
     <row r="37" spans="1:32" ht="29.25" customHeight="1">
       <c r="B37" s="28"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="60"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="33"/>
       <c r="J37" s="28"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="31"/>
-      <c r="AB37" s="31"/>
-      <c r="AC37" s="65"/>
-      <c r="AD37" s="65"/>
-      <c r="AE37" s="65"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="34"/>
+      <c r="AE37" s="34"/>
     </row>
     <row r="38" spans="1:32" ht="29.25" customHeight="1">
       <c r="B38" s="28"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="60"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="33"/>
       <c r="J38" s="28"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31"/>
-      <c r="AC38" s="65"/>
-      <c r="AD38" s="65"/>
-      <c r="AE38" s="65"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="34"/>
+      <c r="AD38" s="34"/>
+      <c r="AE38" s="34"/>
     </row>
     <row r="39" spans="1:32" ht="29.25" customHeight="1">
       <c r="B39" s="28"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="60"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="33"/>
       <c r="J39" s="28"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="31"/>
-      <c r="AC39" s="65"/>
-      <c r="AD39" s="65"/>
-      <c r="AE39" s="65"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="34"/>
+      <c r="AE39" s="34"/>
     </row>
     <row r="40" spans="1:32" ht="29.25" customHeight="1"/>
     <row r="41" spans="1:32" ht="29.25" customHeight="1"/>
@@ -7759,75 +7795,6 @@
     <row r="53" ht="29.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:AB39"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:AE3"/>
     <mergeCell ref="F7:Q7"/>
@@ -7839,6 +7806,75 @@
     <mergeCell ref="W9:Y12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="AC9:AE12"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -7855,7 +7891,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8153,8 +8189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:H17"/>
+    <sheetView zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -8381,8 +8417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9307775C-FDAD-4FEC-9AA1-F7A5249BC81A}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -8526,7 +8562,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:H17"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8931,8 +8967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1476D7B-9FE2-4CCC-A5FC-D0B9BE2EF443}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -9344,7 +9380,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:H12"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -10082,7 +10118,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="70" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -10413,24 +10449,24 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="73"/>
-      <c r="B26" s="73"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="73"/>
-      <c r="B27" s="74"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="73"/>
-      <c r="B28" s="73"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -10475,8 +10511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154C489F-8E9A-47AE-8705-23A06B876C20}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -10493,7 +10529,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="70" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -10885,6 +10921,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006CA8BB7AF5A5B141B60E23C89B396D11" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="62746eb1d78ebc3451d4db4eb7c635bd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8a424a7-50d7-4cd5-819d-65031445e48f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="38d8a6a4b62d5c94138e82bba83eb1ac" ns2:_="">
     <xsd:import namespace="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
@@ -11056,15 +11101,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -11076,6 +11112,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120F1888-39C5-479E-B2C4-E2B421ACFC0E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C17B0A5D-5177-4FB0-880C-EB3DAEA577DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11089,14 +11133,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120F1888-39C5-479E-B2C4-E2B421ACFC0E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/03_DB設計書/サーバサイド設計.xlsx
+++ b/03_DB設計書/サーバサイド設計.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8BD25F-3E58-4142-9848-FA2132480267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002EBC6B-AD3E-417B-850B-34DEBC251E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -2007,58 +2007,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2109,6 +2064,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2125,6 +2089,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -6014,7 +6014,7 @@
   </sheetPr>
   <dimension ref="A1:FT53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -6449,18 +6449,18 @@
       <c r="U3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="30"/>
-      <c r="W3" s="46">
+      <c r="V3" s="29"/>
+      <c r="W3" s="30">
         <v>45048</v>
       </c>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="30"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="29"/>
       <c r="AF3" s="13"/>
     </row>
     <row r="4" spans="1:176" ht="19.2">
@@ -6572,20 +6572,20 @@
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="19"/>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="49"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="34"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
@@ -6603,86 +6603,86 @@
     </row>
     <row r="8" spans="1:176" ht="14.4">
       <c r="A8" s="13"/>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="56" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="58"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="43"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
-      <c r="W8" s="62" t="s">
+      <c r="W8" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62" t="s">
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62" t="s">
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="62"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47"/>
       <c r="AF8" s="13"/>
     </row>
     <row r="9" spans="1:176" ht="12">
       <c r="A9" s="13"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="61"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="46"/>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
-      <c r="W9" s="43" t="s">
+      <c r="W9" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="43" t="s">
+      <c r="X9" s="49"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="43" t="s">
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="45"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="50"/>
       <c r="AF9" s="13"/>
     </row>
     <row r="10" spans="1:176" ht="12">
@@ -6708,15 +6708,15 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
-      <c r="W10" s="63"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="63"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="63"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="65"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="53"/>
       <c r="AF10" s="13"/>
     </row>
     <row r="11" spans="1:176" ht="12">
@@ -6742,15 +6742,15 @@
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
-      <c r="W11" s="63"/>
-      <c r="X11" s="64"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="63"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="63"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="65"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="53"/>
       <c r="AF11" s="13"/>
     </row>
     <row r="12" spans="1:176" ht="12">
@@ -6776,15 +6776,15 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="67"/>
-      <c r="AE12" s="68"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="54"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="54"/>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="56"/>
       <c r="AF12" s="13"/>
     </row>
     <row r="13" spans="1:176" ht="12">
@@ -6879,106 +6879,106 @@
     </row>
     <row r="16" spans="1:176" ht="12">
       <c r="A16" s="13"/>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="42"/>
-      <c r="AE16" s="42"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
       <c r="AF16" s="13"/>
     </row>
     <row r="17" spans="1:32" ht="12">
       <c r="A17" s="13"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="42"/>
-      <c r="AE17" s="42"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
       <c r="AF17" s="13"/>
     </row>
     <row r="18" spans="1:32" ht="12">
       <c r="A18" s="13"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="42"/>
-      <c r="AD18" s="42"/>
-      <c r="AE18" s="42"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
       <c r="AF18" s="13"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -7120,41 +7120,41 @@
       <c r="B23" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="29"/>
       <c r="J23" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="43" t="s">
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="45"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="50"/>
       <c r="AF23" s="21"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
@@ -7162,41 +7162,41 @@
       <c r="B24" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31">
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="58">
         <v>45048</v>
       </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="60"/>
       <c r="J24" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="38" t="s">
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="38"/>
+      <c r="AD24" s="61"/>
+      <c r="AE24" s="61"/>
       <c r="AF24" s="13"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
@@ -7204,41 +7204,41 @@
       <c r="B25" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="36">
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="62">
         <v>45048</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="39"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
       <c r="J25" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="38" t="s">
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AD25" s="38"/>
-      <c r="AE25" s="38"/>
+      <c r="AD25" s="61"/>
+      <c r="AE25" s="61"/>
       <c r="AF25" s="13"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
@@ -7246,41 +7246,41 @@
       <c r="B26" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="36">
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="62">
         <v>45048</v>
       </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="34" t="s">
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="38" t="s">
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="65"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AD26" s="38"/>
-      <c r="AE26" s="38"/>
+      <c r="AD26" s="61"/>
+      <c r="AE26" s="61"/>
       <c r="AF26" s="13"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
@@ -7288,41 +7288,41 @@
       <c r="B27" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="36">
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="62">
         <v>45048</v>
       </c>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40" t="s">
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="38" t="s">
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="67"/>
+      <c r="Z27" s="67"/>
+      <c r="AA27" s="67"/>
+      <c r="AB27" s="67"/>
+      <c r="AC27" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="AD27" s="38"/>
-      <c r="AE27" s="38"/>
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="61"/>
       <c r="AF27" s="13"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
@@ -7330,41 +7330,41 @@
       <c r="B28" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31">
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="58">
         <v>45048</v>
       </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="60"/>
       <c r="J28" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="34" t="s">
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="AD28" s="34"/>
-      <c r="AE28" s="34"/>
+      <c r="AD28" s="65"/>
+      <c r="AE28" s="65"/>
       <c r="AF28" s="13"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
@@ -7372,41 +7372,41 @@
       <c r="B29" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31">
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="58">
         <v>45048</v>
       </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="60"/>
       <c r="J29" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="34" t="s">
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="AD29" s="34"/>
-      <c r="AE29" s="34"/>
+      <c r="AD29" s="65"/>
+      <c r="AE29" s="65"/>
       <c r="AF29" s="13"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
@@ -7414,41 +7414,41 @@
       <c r="B30" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31">
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="58">
         <v>45048</v>
       </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="60"/>
       <c r="J30" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="35" t="s">
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="AD30" s="35"/>
-      <c r="AE30" s="35"/>
+      <c r="AD30" s="68"/>
+      <c r="AE30" s="68"/>
       <c r="AF30" s="13"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
@@ -7456,41 +7456,41 @@
       <c r="B31" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31">
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="58">
         <v>45055</v>
       </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="33"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="60"/>
       <c r="J31" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="29"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="34" t="s">
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="AD31" s="34"/>
-      <c r="AE31" s="34"/>
+      <c r="AD31" s="65"/>
+      <c r="AE31" s="65"/>
       <c r="AF31" s="13"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
@@ -7498,41 +7498,41 @@
       <c r="B32" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31">
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="58">
         <v>45056</v>
       </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="60"/>
       <c r="J32" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="29"/>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="34" t="s">
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="31"/>
+      <c r="AC32" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="AD32" s="34"/>
-      <c r="AE32" s="34"/>
+      <c r="AD32" s="65"/>
+      <c r="AE32" s="65"/>
       <c r="AF32" s="13"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
@@ -7540,41 +7540,41 @@
       <c r="B33" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31">
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="58">
         <v>45070</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="33"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="60"/>
       <c r="J33" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="29"/>
-      <c r="AA33" s="29"/>
-      <c r="AB33" s="29"/>
-      <c r="AC33" s="35" t="s">
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="31"/>
+      <c r="AC33" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="AD33" s="35"/>
-      <c r="AE33" s="35"/>
+      <c r="AD33" s="68"/>
+      <c r="AE33" s="68"/>
       <c r="AF33" s="13"/>
     </row>
     <row r="34" spans="1:32" ht="29.25" customHeight="1">
@@ -7582,202 +7582,202 @@
       <c r="B34" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31">
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="58">
         <v>45090</v>
       </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="33"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="60"/>
       <c r="J34" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="29"/>
-      <c r="AB34" s="29"/>
-      <c r="AC34" s="34" t="s">
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="AD34" s="34"/>
-      <c r="AE34" s="34"/>
+      <c r="AD34" s="65"/>
+      <c r="AE34" s="65"/>
       <c r="AF34" s="13"/>
     </row>
     <row r="35" spans="1:32" ht="29.25" customHeight="1">
       <c r="B35" s="28"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="33"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="60"/>
       <c r="J35" s="28"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="29"/>
-      <c r="AA35" s="29"/>
-      <c r="AB35" s="29"/>
-      <c r="AC35" s="35"/>
-      <c r="AD35" s="35"/>
-      <c r="AE35" s="35"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="31"/>
+      <c r="AC35" s="68"/>
+      <c r="AD35" s="68"/>
+      <c r="AE35" s="68"/>
     </row>
     <row r="36" spans="1:32" ht="29.25" customHeight="1">
       <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="33"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60"/>
       <c r="J36" s="28"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="29"/>
-      <c r="AA36" s="29"/>
-      <c r="AB36" s="29"/>
-      <c r="AC36" s="35"/>
-      <c r="AD36" s="35"/>
-      <c r="AE36" s="35"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="31"/>
+      <c r="AB36" s="31"/>
+      <c r="AC36" s="68"/>
+      <c r="AD36" s="68"/>
+      <c r="AE36" s="68"/>
     </row>
     <row r="37" spans="1:32" ht="29.25" customHeight="1">
       <c r="B37" s="28"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="33"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="60"/>
       <c r="J37" s="28"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="29"/>
-      <c r="AB37" s="29"/>
-      <c r="AC37" s="34"/>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="34"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="31"/>
+      <c r="AC37" s="65"/>
+      <c r="AD37" s="65"/>
+      <c r="AE37" s="65"/>
     </row>
     <row r="38" spans="1:32" ht="29.25" customHeight="1">
       <c r="B38" s="28"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="33"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="60"/>
       <c r="J38" s="28"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="29"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="34"/>
-      <c r="AD38" s="34"/>
-      <c r="AE38" s="34"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="65"/>
+      <c r="AD38" s="65"/>
+      <c r="AE38" s="65"/>
     </row>
     <row r="39" spans="1:32" ht="29.25" customHeight="1">
       <c r="B39" s="28"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="33"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="60"/>
       <c r="J39" s="28"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="29"/>
-      <c r="AB39" s="29"/>
-      <c r="AC39" s="34"/>
-      <c r="AD39" s="34"/>
-      <c r="AE39" s="34"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="31"/>
+      <c r="AB39" s="31"/>
+      <c r="AC39" s="65"/>
+      <c r="AD39" s="65"/>
+      <c r="AE39" s="65"/>
     </row>
     <row r="40" spans="1:32" ht="29.25" customHeight="1"/>
     <row r="41" spans="1:32" ht="29.25" customHeight="1"/>
@@ -7795,6 +7795,75 @@
     <row r="53" ht="29.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:AE3"/>
     <mergeCell ref="F7:Q7"/>
@@ -7806,75 +7875,6 @@
     <mergeCell ref="W9:Y12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="AC9:AE12"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:AB39"/>
-    <mergeCell ref="AC39:AE39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -8561,8 +8561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFC7A4E-D38F-4AD1-9F58-E06FF44A170C}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8967,8 +8967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1476D7B-9FE2-4CCC-A5FC-D0B9BE2EF443}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -9379,7 +9379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E092427-6842-4445-A08A-D1A82D22F7F8}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -10100,8 +10100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99AFFE4-A775-4CD0-A6FA-1D1EB0894E48}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -10511,8 +10511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154C489F-8E9A-47AE-8705-23A06B876C20}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -10930,6 +10930,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c8a424a7-50d7-4cd5-819d-65031445e48f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006CA8BB7AF5A5B141B60E23C89B396D11" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="62746eb1d78ebc3451d4db4eb7c635bd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8a424a7-50d7-4cd5-819d-65031445e48f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="38d8a6a4b62d5c94138e82bba83eb1ac" ns2:_="">
     <xsd:import namespace="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
@@ -11101,16 +11111,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c8a424a7-50d7-4cd5-819d-65031445e48f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120F1888-39C5-479E-B2C4-E2B421ACFC0E}">
   <ds:schemaRefs>
@@ -11120,6 +11120,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31C96260-F6F0-437B-8A0B-59B492E42F8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C17B0A5D-5177-4FB0-880C-EB3DAEA577DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11135,20 +11151,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31C96260-F6F0-437B-8A0B-59B492E42F8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>